--- a/src/test/resources/fitchfieldID.xlsx
+++ b/src/test/resources/fitchfieldID.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" iterate="1" calcOnSave="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2516" uniqueCount="2516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="2527">
   <si>
     <t>fitchFieldId</t>
   </si>
@@ -7564,6 +7564,39 @@
   </si>
   <si>
     <t>FC_STATEMENT_CURRENCY_CD</t>
+  </si>
+  <si>
+    <t>FC_STATEMENT_TYPE</t>
+  </si>
+  <si>
+    <t>FC_PERIOD_TYPE</t>
+  </si>
+  <si>
+    <t>FC_STATEMENT_ID</t>
+  </si>
+  <si>
+    <t>FC_ACCOUNTING_STANDARD</t>
+  </si>
+  <si>
+    <t>FC_CONSOLIDATION_STATUS</t>
+  </si>
+  <si>
+    <t>FC_SPECIALISATION_DESC</t>
+  </si>
+  <si>
+    <t>FC_INFLATION_ADJ</t>
+  </si>
+  <si>
+    <t>FC_COMBINED_INSURANCE</t>
+  </si>
+  <si>
+    <t>FC_LATEST_STATEMENT_DATE</t>
+  </si>
+  <si>
+    <t>FC_INSURANCE_CO_CLASS_DESC</t>
+  </si>
+  <si>
+    <t>FS_INSURANCE_BUSINESS_TYPE</t>
   </si>
 </sst>
 </file>
@@ -7647,7 +7680,24 @@
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7972,10 +8022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2516"/>
+  <dimension ref="A1:A2527"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A2464" workbookViewId="0">
+      <selection activeCell="D2515" sqref="D2515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20563,15 +20613,76 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2517" s="4" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2518" s="4" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2519" s="4" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2520" s="4" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2521" s="4" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2522" s="4" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2523" s="4" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2524" s="4" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2525" s="4" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2526" s="4" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2527" s="4" t="s">
+        <v>2526</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="A1:A2516 A2528:A1048576">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>IF(FIND(" ",$E1)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2517:A2527">
+    <cfRule type="expression" dxfId="1" priority="12">
+      <formula>IF(FIND(" ",$E2517)&gt;0,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/fitchfieldID.xlsx
+++ b/src/test/resources/fitchfieldID.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterate="1" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="2527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2809" uniqueCount="2809">
   <si>
     <t>fitchFieldId</t>
   </si>
@@ -7597,13 +7597,859 @@
   </si>
   <si>
     <t>FS_INSURANCE_BUSINESS_TYPE</t>
+  </si>
+  <si>
+    <t>FC_LT_LC_PRELIM_ISSR_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_LC_PRELIM_ISSR_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_LC_PRELIM_ISSR_OUTLOOK_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_LC_PRELIM_ISSR_OUTLOOK_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_LC_PRELIM_ISSR_CW_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_LC_PRELIM_ISSR_CW_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_LC_PRELIM_ISSR_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_LC_PRELIM_ISSR_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_LC_PRELIM_ISSR_OUTLOOK_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_LC_PRELIM_ISSR_OUTLOOK_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_LC_PRELIM_ISSR_CW_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_LC_PRELIM_ISSR_CW_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_FC_PRELIM_ISSR_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_FC_PRELIM_ISSR_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_FC_PRELIM_ISSR_OUTLOOK_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_FC_PRELIM_ISSR_OUTLOOK_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_FC_PRELIM_ISSR_CW_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_FC_PRELIM_ISSR_CW_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_FC_PRELIM_ISSR_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_FC_PRELIM_ISSR_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_FC_PRELIM_ISSR_OUTLOOK_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_FC_PRELIM_ISSR_OUTLOOK_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_FC_PRELIM_ISSR_CW_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_FC_PRELIM_ISSR_CW_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_ARG_NSR_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_ARG_NSR_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_ARG_NSR_OUTLOOK_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_ARG_NSR_OUTLOOK_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_ARG_NSR_CW_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_ARG_NSR_CW_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_ARG_NSR_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_ARG_NSR_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_ARG_NSR_OUTLOOK_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_ARG_NSR_OUTLOOK_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_ARG_NSR_CW_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_ARG_NSR_CW_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_ASN_NSR_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_ASN_NSR_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_ASN_NSR_OUTLOOK_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_ASN_NSR_OUTLOOK_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_ASN_NSR_CW_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_ASN_NSR_CW_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_ASN_NSR_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_ASN_NSR_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_ASN_NSR_OUTLOOK_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_ASN_NSR_OUTLOOK_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_ASN_NSR_CW_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_ASN_NSR_CW_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_BRAZ_NSR_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_BRAZ_NSR_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_BRAZ_NSR_OUTLOOK_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_BRAZ_NSR_OUTLOOK_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_BRAZ_NSR_CW_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_BRAZ_NSR_CW_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_BRAZ_NSR_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_BRAZ_NSR_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_BRAZ_NSR_OUTLOOK_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_BRAZ_NSR_OUTLOOK_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_BRAZ_NSR_CW_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_BRAZ_NSR_CW_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_CAVAL_NSR_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_CAVAL_NSR_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_CAVAL_NSR_OUTLOOK_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_CAVAL_NSR_OUTLOOK_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_CAVAL_NSR_CW_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_CAVAL_NSR_CW_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_CAVAL_NSR_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_CAVAL_NSR_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_CAVAL_NSR_OUTLOOK_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_CAVAL_NSR_OUTLOOK_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_CAVAL_NSR_CW_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_CAVAL_NSR_CW_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_CHN_NSR_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_CHN_NSR_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_CHN_NSR_OUTLOOK_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_CHN_NSR_OUTLOOK_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_CHN_NSR_CW_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_CHN_NSR_CW_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_CHN_NSR_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_CHN_NSR_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_CHN_NSR_OUTLOOK_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_CHN_NSR_OUTLOOK_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_CHN_NSR_CW_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_CHN_NSR_CW_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_GCC_NSR_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_GCC_NSR_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_GCC_NSR_OUTLOOK_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_GCC_NSR_OUTLOOK_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_GCC_NSR_CW_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_GCC_NSR_CW_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_GCC_NSR_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_GCC_NSR_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_GCC_NSR_OUTLOOK_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_GCC_NSR_OUTLOOK_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_GCC_NSR_CW_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_GCC_NSR_CW_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_KAZ_NSR_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_KAZ_NSR_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_KAZ_NSR_OUTLOOK_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_KAZ_NSR_OUTLOOK_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_KAZ_NSR_CW_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_KAZ_NSR_CW_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_KAZ_NSR_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_KAZ_NSR_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_KAZ_NSR_OUTLOOK_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_KAZ_NSR_OUTLOOK_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_KAZ_NSR_CW_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_KAZ_NSR_CW_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_NIG_NSR_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_NIG_NSR_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_NIG_NSR_OUTLOOK_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_NIG_NSR_OUTLOOK_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_NIG_NSR_CW_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_NIG_NSR_CW_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_NIG_NSR_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_NIG_NSR_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_NIG_NSR_OUTLOOK_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_NIG_NSR_OUTLOOK_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_NIG_NSR_CW_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_NIG_NSR_CW_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_NORD_NSR_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_NORD_NSR_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_NORD_NSR_OUTLOOK_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_NORD_NSR_OUTLOOK_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_NORD_NSR_CW_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_NORD_NSR_CW_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_RUSS_NSR_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_RUSS_NSR_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_RUSS_NSR_OUTLOOK_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_RUSS_NSR_OUTLOOK_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_RUSS_NSR_CW_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_RUSS_NSR_CW_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_RUSS_NSR_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_RUSS_NSR_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_RUSS_NSR_OUTLOOK_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_RUSS_NSR_OUTLOOK_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_RUSS_NSR_CW_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_RUSS_NSR_CW_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_ISR_NSR_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_ISR_NSR_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_ISR_NSR_OUTLOOK_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_ISR_NSR_OUTLOOK_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_ISR_NSR_CW_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_ISR_NSR_CW_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_ISR_NSR_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_ISR_NSR_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_ISR_NSR_OUTLOOK_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_ISR_NSR_OUTLOOK_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_ISR_NSR_CW_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_ISR_NSR_CW_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_SA_NSR_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_SA_NSR_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_SA_NSR_OUTLOOK_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_SA_NSR_OUTLOOK_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_SA_NSR_CW_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_SA_NSR_CW_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_SA_NSR_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_SA_NSR_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_SA_NSR_OUTLOOK_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_SA_NSR_OUTLOOK_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_SA_NSR_CW_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_SA_NSR_CW_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_TAIW_NSR_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_TAIW_NSR_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_TAIW_NSR_OUTLOOK_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_TAIW_NSR_OUTLOOK_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_TAIW_NSR_CW_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_TAIW_NSR_CW_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_TAIW_NSR_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_TAIW_NSR_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_TAIW_NSR_OUTLOOK_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_TAIW_NSR_OUTLOOK_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_TAIW_NSR_CW_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_TAIW_NSR_CW_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_TUR_NSR_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_TUR_NSR_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_TUR_NSR_OUTLOOK_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_TUR_NSR_OUTLOOK_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_TUR_NSR_CW_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_TUR_NSR_CW_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_TUR_NSR_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_TUR_NSR_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_TUR_NSR_OUTLOOK_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_TUR_NSR_OUTLOOK_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_TUR_NSR_CW_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_TUR_NSR_CW_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_UKR_NSR_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_UKR_NSR_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_UKR_NSR_OUTLOOK_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_UKR_NSR_OUTLOOK_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_UKR_NSR_CW_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_UKR_NSR_CW_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_UKR_NSR_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_UKR_NSR_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_UKR_NSR_OUTLOOK_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_UKR_NSR_OUTLOOK_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_UKR_NSR_CW_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_UKR_NSR_CW_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_URG_NSR_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_URG_NSR_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_URG_NSR_OUTLOOK_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_URG_NSR_OUTLOOK_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_URG_NSR_CW_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_URG_NSR_CW_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_URG_NSR_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_URG_NSR_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_URG_NSR_OUTLOOK_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_URG_NSR_OUTLOOK_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_URG_NSR_CW_SP</t>
+  </si>
+  <si>
+    <t>FC_ST_URG_NSR_CW_DT_SP</t>
+  </si>
+  <si>
+    <t>FC_LT_NSR_ISSR_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_NSR_ISSR_DIR_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_NSR_ISSR_DT_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_NSR_ISSR_WATCHLIST_DIR_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_NSR_ISSR_WATCHLIST_DT_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_NSR_ISSR_RANK_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_NSR_BANK_DEPOSITS_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_NSR_BANK_DEPOSITS_DIR_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_NSR_BANK_DEPOSITS_DT_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_NSR_BANK_DEPOSITS_WATCHLIST_DIR_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_NSR_BANK_DEPOSITS_WATCHLIST_DT_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_NSR_BANK_DEPOSITS_RANK_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_NSR_CORP_FAMILY_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_NSR_CORP_FAMILY_DIR_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_NSR_CORP_FAMILY_DT_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_NSR_CORP_FAMILY_WATCHLIST_DIR_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_NSR_CORP_FAMILY_WATCHLIST_DT_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_NSR_CORP_FAMILY_RANK_MDY</t>
+  </si>
+  <si>
+    <t>FC_ST_FC_ISSR_MDY</t>
+  </si>
+  <si>
+    <t>FC_ST_FC_ISSR_DIR_MDY</t>
+  </si>
+  <si>
+    <t>FC_ST_FC_ISSR_DT_MDY</t>
+  </si>
+  <si>
+    <t>FC_ST_FC_ISSR_WATCHLIST_DIR_MDY</t>
+  </si>
+  <si>
+    <t>FC_ST_FC_ISSR_WATCHLIST_DT_MDY</t>
+  </si>
+  <si>
+    <t>FC_ST_FC_ISSR_RANK_MDY</t>
+  </si>
+  <si>
+    <t>FC_ST_NSR_BANK_DEPOSITS_MDY</t>
+  </si>
+  <si>
+    <t>FC_ST_NSR_BANK_DEPOSITS_DIR_MDY</t>
+  </si>
+  <si>
+    <t>FC_ST_NSR_BANK_DEPOSITS_DT_MDY</t>
+  </si>
+  <si>
+    <t>FC_ST_NSR_BANK_DEPOSITS_WATCHLIST_DIR_MDY</t>
+  </si>
+  <si>
+    <t>FC_ST_NSR_BANK_DEPOSITS_WATCHLIST_DT_MDY</t>
+  </si>
+  <si>
+    <t>FC_ST_NSR_BANK_DEPOSITS_RANK_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_FC_NSR_BANK_DEPOSITS_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_FC_NSR_BANK_DEPOSITS_DIR_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_FC_NSR_BANK_DEPOSITS_DT_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_FC_NSR_BANK_DEPOSITS_WATCHLIST_DIR_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_FC_NSR_BANK_DEPOSITS_WATCHLIST_DT_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_FC_NSR_BANK_DEPOSITS_RANK_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_FC_COUNTRY_CEILING_DEBT_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_FC_COUNTRY_CEILING_DEBT_DIR_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_FC_COUNTRY_CEILING_DEBT_DT_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_FC_COUNTRY_CEILING_DEBT_WATCHLIST_DIR_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_FC_COUNTRY_CEILING_DEBT_WATCHLIST_DT_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_FC_COUNTRY_CEILING_DEBT_RANK_MDY</t>
+  </si>
+  <si>
+    <t>FC_ST_FC_COUNTRY_CEILING_DEBT_MDY</t>
+  </si>
+  <si>
+    <t>FC_ST_FC_COUNTRY_CEILING_DEBT_DIR_MDY</t>
+  </si>
+  <si>
+    <t>FC_ST_FC_COUNTRY_CEILING_DEBT_DT_MDY</t>
+  </si>
+  <si>
+    <t>FC_ST_FC_COUNTRY_CEILING_DEBT_WATCHLIST_DIR_MDY</t>
+  </si>
+  <si>
+    <t>FC_ST_FC_COUNTRY_CEILING_DEBT_WATCHLIST_DT_MDY</t>
+  </si>
+  <si>
+    <t>FC_ST_FC_COUNTRY_CEILING_DEBT_RANK_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_FC_COUNTRY_CEILING_BANK_DEPOSITS_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_FC_COUNTRY_CEILING_BANK_DEPOSITS_DIR_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_FC_COUNTRY_CEILING_BANK_DEPOSITS_DT_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_FC_COUNTRY_CEILING_BANK_DEPOSITS_WATCHLIST_DIR_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_FC_COUNTRY_CEILING_BANK_DEPOSITS_WATCHLIST_DT_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_FC_COUNTRY_CEILING_BANK_DEPOSITS_RANK_MDY</t>
+  </si>
+  <si>
+    <t>FC_ST_FC_COUNTRY_CEILING_BANK_DEPOSITS_MDY</t>
+  </si>
+  <si>
+    <t>FC_ST_FC_COUNTRY_CEILING_BANK_DEPOSITS_DIR_MDY</t>
+  </si>
+  <si>
+    <t>FC_ST_FC_COUNTRY_CEILING_BANK_DEPOSITS_DT_MDY</t>
+  </si>
+  <si>
+    <t>FC_ST_FC_COUNTRY_CEILING_BANK_DEPOSITS_WATCHLIST_DIR_MDY</t>
+  </si>
+  <si>
+    <t>FC_ST_FC_COUNTRY_CEILING_BANK_DEPOSITS_WATCHLIST_DT_MDY</t>
+  </si>
+  <si>
+    <t>FC_ST_FC_COUNTRY_CEILING_BANK_DEPOSITS_RANK_MDY</t>
+  </si>
+  <si>
+    <t>FC_ST_NSR_MDY</t>
+  </si>
+  <si>
+    <t>FC_ST_NSR_DIR_MDY</t>
+  </si>
+  <si>
+    <t>FC_ST_NSR_DT_MDY</t>
+  </si>
+  <si>
+    <t>FC_ST_NSR_WATCHLIST_DIR_MDY</t>
+  </si>
+  <si>
+    <t>FC_ST_NSR_WATCHLIST_DT_MDY</t>
+  </si>
+  <si>
+    <t>FC_ST_NSR_RANK_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_FC_NSR_CORP_FAMILY_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_FC_NSR_CORP_FAMILY_DIR_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_FC_NSR_CORP_FAMILY_DT_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_FC_NSR_CORP_FAMILY_WATCHLIST_DIR_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_FC_NSR_CORP_FAMILY_WATCHLIST_DT_MDY</t>
+  </si>
+  <si>
+    <t>FC_LT_FC_NSR_CORP_FAMILY_RANK_MDY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7629,8 +8475,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7649,6 +8502,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -7664,7 +8523,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -7674,13 +8533,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -8022,10 +8916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2527"/>
+  <dimension ref="A1:A2809"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2464" workbookViewId="0">
-      <selection activeCell="D2515" sqref="D2515"/>
+    <sheetView tabSelected="1" topLeftCell="A2770" workbookViewId="0">
+      <selection activeCell="J2796" sqref="J2796"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20668,21 +21562,1437 @@
         <v>2526</v>
       </c>
     </row>
+    <row r="2528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2528" s="9" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2529" s="9" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2530" s="9" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2531" s="9" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2532" s="9" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2533" s="9" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2534" s="9" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2535" s="9" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2536" s="9" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2537" s="9" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2538" s="9" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2539" s="9" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2540" s="9" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2541" s="9" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2542" s="9" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2543" s="9" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2544" s="9" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2545" s="9" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2546" s="9" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2547" s="9" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2548" s="9" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2549" s="9" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2550" s="9" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2551" s="9" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2552" s="9" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2553" s="9" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2554" s="9" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2555" s="9" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2556" s="9" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2557" s="9" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2558" s="9" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2559" s="9" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2560" s="9" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2561" s="9" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2562" s="9" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2563" s="9" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2564" s="9" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2565" s="9" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2566" s="9" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2567" s="9" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2568" s="9" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2569" s="9" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2570" s="9" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2571" s="9" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2572" s="9" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2573" s="9" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2574" s="9" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2575" s="9" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2576" s="9" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2577" s="9" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2578" s="9" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2579" s="9" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2580" s="9" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2581" s="9" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2582" s="9" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2583" s="9" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2584" s="9" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2585" s="9" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2586" s="9" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2587" s="9" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2588" s="9" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2589" s="9" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2590" s="9" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2591" s="9" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2592" s="9" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2593" s="9" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2594" s="9" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2595" s="9" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2596" s="9" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2597" s="9" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2598" s="9" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2599" s="9" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2600" s="9" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2601" s="9" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2602" s="9" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2603" s="9" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2604" s="9" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2605" s="9" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2606" s="9" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2607" s="9" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2608" s="9" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2609" s="9" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2610" s="9" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2611" s="9" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2612" s="9" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2613" s="9" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2614" s="9" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2615" s="9" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2616" s="9" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2617" s="9" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2618" s="9" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2619" s="9" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2620" s="9" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2621" s="9" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2622" s="9" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2623" s="9" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2624" s="9" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2625" s="9" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2626" s="9" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2627" s="9" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2628" s="9" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2629" s="9" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2630" s="9" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2631" s="9" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2632" s="9" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2633" s="9" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2634" s="9" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2635" s="9" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2636" s="9" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2637" s="9" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2638" s="9" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2639" s="9" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2640" s="9" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2641" s="9" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2642" s="9" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2643" s="9" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2644" s="9" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2645" s="9" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2646" s="9" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2647" s="9" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2648" s="9" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2649" s="9" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2650" s="9" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2651" s="9" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2652" s="9" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2653" s="9" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2654" s="9" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2655" s="9" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2656" s="9" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2657" s="9" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2658" s="9" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2659" s="9" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2660" s="9" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2661" s="9" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2662" s="9" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2663" s="9" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2664" s="9" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2665" s="9" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2666" s="9" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2667" s="9" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2668" s="9" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2669" s="9" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2670" s="9" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2671" s="9" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2672" s="9" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2673" s="9" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2674" s="9" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2675" s="9" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2676" s="9" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2677" s="9" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2678" s="9" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2679" s="9" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2680" s="9" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2681" s="9" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="2682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2682" s="9" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2683" s="9" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2684" s="9" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2685" s="9" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="2686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2686" s="9" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2687" s="9" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="2688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2688" s="9" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="2689" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2689" s="9" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="2690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2690" s="9" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="2691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2691" s="9" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="2692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2692" s="9" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="2693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2693" s="9" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="2694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2694" s="9" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="2695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2695" s="9" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="2696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2696" s="9" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="2697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2697" s="9" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="2698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2698" s="9" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="2699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2699" s="9" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="2700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2700" s="9" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="2701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2701" s="9" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="2702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2702" s="9" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="2703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2703" s="9" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="2704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2704" s="9" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="2705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2705" s="9" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="2706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2706" s="9" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="2707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2707" s="9" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="2708" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2708" s="9" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="2709" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2709" s="9" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="2710" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2710" s="9" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="2711" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2711" s="9" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="2712" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2712" s="9" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="2713" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2713" s="9" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="2714" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2714" s="9" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="2715" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2715" s="9" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="2716" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2716" s="9" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="2717" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2717" s="9" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="2718" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2718" s="9" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="2719" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2719" s="9" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="2720" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2720" s="9" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="2721" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2721" s="9" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="2722" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2722" s="9" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="2723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2723" s="9" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="2724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2724" s="9" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="2725" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2725" s="9" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="2726" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2726" s="9" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="2727" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2727" s="9" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="2728" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2728" s="9" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="2729" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2729" s="9" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="2730" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2730" s="9" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="2731" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2731" s="9" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="2732" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2732" s="9" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="2733" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2733" s="9" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="2734" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2734" s="9" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="2735" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2735" s="9" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="2736" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2736" s="9" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="2737" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2737" s="9" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="2738" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2738" s="9" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="2739" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2739" s="9" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="2740" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2740" s="9" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="2741" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2741" s="9" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="2742" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2742" s="9" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="2743" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2743" s="9" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="2744" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2744" s="9" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="2745" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2745" s="9" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="2746" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2746" s="9" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="2747" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2747" s="9" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="2748" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2748" s="9" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="2749" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2749" s="9" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="2750" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2750" s="9" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="2751" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2751" s="9" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="2752" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2752" s="9" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="2753" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2753" s="9" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="2754" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2754" s="9" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="2755" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2755" s="9" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="2756" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2756" s="9" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="2757" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2757" s="9" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="2758" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2758" s="9" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="2759" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2759" s="9" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="2760" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2760" s="9" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="2761" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2761" s="9" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="2762" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2762" s="9" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="2763" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2763" s="9" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="2764" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2764" s="9" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="2765" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2765" s="9" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="2766" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2766" s="9" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="2767" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2767" s="9" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="2768" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2768" s="9" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="2769" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2769" s="9" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="2770" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2770" s="9" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="2771" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2771" s="9" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="2772" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2772" s="9" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2773" s="9" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="2774" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2774" s="9" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="2775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2775" s="9" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="2776" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2776" s="9" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="2777" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2777" s="9" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="2778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2778" s="9" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="2779" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2779" s="9" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="2780" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2780" s="9" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="2781" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2781" s="9" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="2782" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2782" s="9" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="2783" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2783" s="9" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="2784" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2784" s="9" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="2785" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2785" s="9" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="2786" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2786" s="9" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="2787" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2787" s="9" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="2788" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2788" s="9" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="2789" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2789" s="9" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="2790" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2790" s="9" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="2791" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2791" s="9" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="2792" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2792" s="9" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="2793" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2793" s="9" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="2794" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2794" s="9" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="2795" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2795" s="9" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="2796" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2796" s="9" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="2797" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2797" s="9" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="2798" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2798" s="9" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="2799" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2799" s="9" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="2800" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2800" s="9" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="2801" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2801" s="9" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="2802" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2802" s="9" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="2803" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2803" s="9" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="2804" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2804" s="9" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="2805" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2805" s="9" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="2806" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2806" s="9" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="2807" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2807" s="9" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="2808" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2808" s="9" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="2809" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2809" s="9" t="s">
+        <v>2808</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A2516 A2528:A1048576">
-    <cfRule type="expression" dxfId="3" priority="6">
+  <conditionalFormatting sqref="A1:A2516 A2810:A1048576">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>IF(FIND(" ",$E1)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2517:A2527">
-    <cfRule type="expression" dxfId="1" priority="12">
+    <cfRule type="expression" dxfId="5" priority="14">
       <formula>IF(FIND(" ",$E2517)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2528:A2809">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>IF(FIND(" ",$E2528)&gt;0,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/fitchfieldID.xlsx
+++ b/src/test/resources/fitchfieldID.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" iterate="1" calcOnSave="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -7596,9 +7596,6 @@
     <t>FC_INSURANCE_CO_CLASS_DESC</t>
   </si>
   <si>
-    <t>FS_INSURANCE_BUSINESS_TYPE</t>
-  </si>
-  <si>
     <t>FC_LT_LC_PRELIM_ISSR_SP</t>
   </si>
   <si>
@@ -8443,6 +8440,9 @@
   </si>
   <si>
     <t>FC_LT_FC_NSR_CORP_FAMILY_RANK_MDY</t>
+  </si>
+  <si>
+    <t>FC_INSURANCE_BUSINESS_TYPE</t>
   </si>
 </sst>
 </file>
@@ -8540,24 +8540,7 @@
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -8918,8 +8901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2809"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2770" workbookViewId="0">
-      <selection activeCell="J2796" sqref="J2796"/>
+    <sheetView tabSelected="1" topLeftCell="A2540" workbookViewId="0">
+      <selection activeCell="D2558" sqref="D2558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21559,1440 +21542,1440 @@
     </row>
     <row r="2527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2527" s="4" t="s">
-        <v>2526</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="2528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2528" s="9" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="2529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2529" s="9" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="2530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2530" s="9" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="2531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2531" s="9" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="2532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2532" s="9" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="2533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2533" s="9" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="2534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2534" s="9" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="2535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2535" s="9" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="2536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2536" s="9" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="2537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2537" s="9" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="2538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2538" s="9" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="2539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2539" s="9" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="2540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2540" s="9" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="2541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2541" s="9" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="2542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2542" s="9" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="2543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2543" s="9" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="2544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2544" s="9" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="2545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2545" s="9" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="2546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2546" s="9" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="2547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2547" s="9" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="2548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2548" s="9" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="2549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2549" s="9" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="2550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2550" s="9" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="2551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2551" s="9" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="2552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2552" s="9" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="2553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2553" s="9" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="2554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2554" s="9" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="2555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2555" s="9" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="2556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2556" s="9" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="2557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2557" s="9" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="2558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2558" s="9" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="2559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2559" s="9" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="2560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2560" s="9" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="2561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2561" s="9" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="2562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2562" s="9" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="2563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2563" s="9" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="2564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2564" s="9" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="2565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2565" s="9" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="2566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2566" s="9" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="2567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2567" s="9" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="2568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2568" s="9" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="2569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2569" s="9" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="2570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2570" s="9" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="2571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2571" s="9" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="2572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2572" s="9" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="2573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2573" s="9" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="2574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2574" s="9" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="2575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2575" s="9" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="2576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2576" s="9" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="2577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2577" s="9" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="2578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2578" s="9" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="2579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2579" s="9" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="2580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2580" s="9" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="2581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2581" s="9" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="2582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2582" s="9" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="2583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2583" s="9" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="2584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2584" s="9" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="2585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2585" s="9" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="2586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2586" s="9" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="2587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2587" s="9" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="2588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2588" s="9" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="2589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2589" s="9" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="2590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2590" s="9" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="2591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2591" s="9" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="2592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2592" s="9" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="2593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2593" s="9" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="2594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2594" s="9" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="2595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2595" s="9" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="2596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2596" s="9" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="2597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2597" s="9" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="2598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2598" s="9" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="2599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2599" s="9" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="2600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2600" s="9" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="2601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2601" s="9" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="2602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2602" s="9" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="2603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2603" s="9" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="2604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2604" s="9" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="2605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2605" s="9" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="2606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2606" s="9" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="2607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2607" s="9" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="2608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2608" s="9" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="2609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2609" s="9" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="2610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2610" s="9" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="2611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2611" s="9" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="2612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2612" s="9" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="2613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2613" s="9" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="2614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2614" s="9" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="2615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2615" s="9" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="2616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2616" s="9" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="2617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2617" s="9" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="2618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2618" s="9" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="2619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2619" s="9" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="2620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2620" s="9" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="2621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2621" s="9" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="2622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2622" s="9" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="2623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2623" s="9" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="2624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2624" s="9" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="2625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2625" s="9" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="2626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2626" s="9" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="2627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2627" s="9" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="2628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2628" s="9" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="2629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2629" s="9" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="2630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2630" s="9" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="2631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2631" s="9" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="2632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2632" s="9" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="2633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2633" s="9" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="2634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2634" s="9" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="2635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2635" s="9" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="2636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2636" s="9" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="2637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2637" s="9" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="2638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2638" s="9" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="2639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2639" s="9" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="2640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2640" s="9" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="2641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2641" s="9" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="2642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2642" s="9" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="2643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2643" s="9" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="2644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2644" s="9" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="2645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2645" s="9" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="2646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2646" s="9" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="2647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2647" s="9" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="2648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2648" s="9" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="2649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2649" s="9" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="2650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2650" s="9" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="2651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2651" s="9" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="2652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2652" s="9" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="2653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2653" s="9" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="2654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2654" s="9" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="2655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2655" s="9" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="2656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2656" s="9" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="2657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2657" s="9" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="2658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2658" s="9" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="2659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2659" s="9" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="2660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2660" s="9" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="2661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2661" s="9" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="2662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2662" s="9" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="2663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2663" s="9" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="2664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2664" s="9" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="2665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2665" s="9" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="2666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2666" s="9" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="2667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2667" s="9" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="2668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2668" s="9" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="2669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2669" s="9" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="2670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2670" s="9" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="2671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2671" s="9" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="2672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2672" s="9" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="2673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2673" s="9" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="2674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2674" s="9" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="2675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2675" s="9" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="2676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2676" s="9" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="2677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2677" s="9" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="2678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2678" s="9" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="2679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2679" s="9" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="2680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2680" s="9" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="2681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2681" s="9" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="2682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2682" s="9" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="2683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2683" s="9" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="2684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2684" s="9" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="2685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2685" s="9" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="2686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2686" s="9" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="2687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2687" s="9" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="2688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2688" s="9" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="2689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2689" s="9" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="2690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2690" s="9" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="2691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2691" s="9" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="2692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2692" s="9" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="2693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2693" s="9" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="2694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2694" s="9" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="2695" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2695" s="9" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="2696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2696" s="9" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="2697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2697" s="9" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="2698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2698" s="9" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="2699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2699" s="9" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="2700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2700" s="9" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="2701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2701" s="9" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="2702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2702" s="9" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="2703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2703" s="9" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="2704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2704" s="9" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="2705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2705" s="9" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="2706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2706" s="9" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="2707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2707" s="9" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="2708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2708" s="9" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="2709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2709" s="9" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="2710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2710" s="9" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="2711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2711" s="9" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="2712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2712" s="9" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="2713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2713" s="9" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="2714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2714" s="9" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="2715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2715" s="9" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="2716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2716" s="9" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="2717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2717" s="9" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="2718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2718" s="9" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="2719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2719" s="9" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="2720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2720" s="9" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="2721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2721" s="9" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="2722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2722" s="9" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="2723" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2723" s="9" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="2724" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2724" s="9" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="2725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2725" s="9" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="2726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2726" s="9" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="2727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2727" s="9" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="2728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2728" s="9" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="2729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2729" s="9" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="2730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2730" s="9" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="2731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2731" s="9" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="2732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2732" s="9" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="2733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2733" s="9" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="2734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2734" s="9" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="2735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2735" s="9" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="2736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2736" s="9" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="2737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2737" s="9" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="2738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2738" s="9" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="2739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2739" s="9" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="2740" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2740" s="9" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="2741" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2741" s="9" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="2742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2742" s="9" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="2743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2743" s="9" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="2744" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2744" s="9" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="2745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2745" s="9" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="2746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2746" s="9" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="2747" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2747" s="9" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="2748" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2748" s="9" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="2749" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2749" s="9" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="2750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2750" s="9" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="2751" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2751" s="9" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="2752" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2752" s="9" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="2753" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2753" s="9" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="2754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2754" s="9" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="2755" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2755" s="9" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="2756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2756" s="9" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="2757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2757" s="9" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="2758" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2758" s="9" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="2759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2759" s="9" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="2760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2760" s="9" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="2761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2761" s="9" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="2762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2762" s="9" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="2763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2763" s="9" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="2764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2764" s="9" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="2765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2765" s="9" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="2766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2766" s="9" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="2767" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2767" s="9" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="2768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2768" s="9" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="2769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2769" s="9" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="2770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2770" s="9" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="2771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2771" s="9" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="2772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2772" s="9" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="2773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2773" s="9" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="2774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2774" s="9" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="2775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2775" s="9" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="2776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2776" s="9" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="2777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2777" s="9" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="2778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2778" s="9" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="2779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2779" s="9" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="2780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2780" s="9" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="2781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2781" s="9" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="2782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2782" s="9" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="2783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2783" s="9" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="2784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2784" s="9" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="2785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2785" s="9" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="2786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2786" s="9" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="2787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2787" s="9" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="2788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2788" s="9" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="2789" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2789" s="9" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="2790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2790" s="9" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="2791" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2791" s="9" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="2792" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2792" s="9" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="2793" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2793" s="9" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="2794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2794" s="9" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="2795" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2795" s="9" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="2796" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2796" s="9" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="2797" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2797" s="9" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="2798" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2798" s="9" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="2799" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2799" s="9" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="2800" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2800" s="9" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="2801" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2801" s="9" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="2802" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2802" s="9" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="2803" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2803" s="9" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="2804" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2804" s="9" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="2805" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2805" s="9" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="2806" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2806" s="9" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="2807" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2807" s="9" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="2808" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2808" s="9" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="2809" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2809" s="9" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2516 A2810:A1048576">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>IF(FIND(" ",$E1)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2517:A2527">
-    <cfRule type="expression" dxfId="5" priority="14">
+    <cfRule type="expression" dxfId="3" priority="14">
       <formula>IF(FIND(" ",$E2517)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="4" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2528:A2809">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>IF(FIND(" ",$E2528)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/fitchfieldID.xlsx
+++ b/src/test/resources/fitchfieldID.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2809" uniqueCount="2809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3018" uniqueCount="3018">
   <si>
     <t>fitchFieldId</t>
   </si>
@@ -8443,6 +8443,633 @@
   </si>
   <si>
     <t>FC_INSURANCE_BUSINESS_TYPE</t>
+  </si>
+  <si>
+    <t>FC_LT_IDR</t>
+  </si>
+  <si>
+    <t>FC_LT_IDR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_LT_IDR_DT</t>
+  </si>
+  <si>
+    <t>FC_LT_IDR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_LT_IDR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_ST_IDR</t>
+  </si>
+  <si>
+    <t>FC_ST_IDR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_ST_IDR_DT</t>
+  </si>
+  <si>
+    <t>FC_ST_IDR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_ST_IDR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_BSR</t>
+  </si>
+  <si>
+    <t>FC_BSR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_BSR_DT</t>
+  </si>
+  <si>
+    <t>FC_BSR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_BSR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_LT_IFSR</t>
+  </si>
+  <si>
+    <t>FC_LT_IFSR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_LT_IFSR_DT</t>
+  </si>
+  <si>
+    <t>FC_LT_IFSR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_LT_IFSR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_LT_NIFSR</t>
+  </si>
+  <si>
+    <t>FC_LT_NIFSR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_LT_NIFSR_DT</t>
+  </si>
+  <si>
+    <t>FC_LT_NIFSR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_LT_NIFSR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_CCR</t>
+  </si>
+  <si>
+    <t>FC_CCR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_CCR_DT</t>
+  </si>
+  <si>
+    <t>FC_CCR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_CCR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_IVR</t>
+  </si>
+  <si>
+    <t>FC_IVR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_IVR_DT</t>
+  </si>
+  <si>
+    <t>FC_IVR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_IVR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_VR</t>
+  </si>
+  <si>
+    <t>FC_VR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_VR_DT</t>
+  </si>
+  <si>
+    <t>FC_VR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_VR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_IFCQR</t>
+  </si>
+  <si>
+    <t>FC_IFCQR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_IFCRQ_DT</t>
+  </si>
+  <si>
+    <t>FC_IFCQR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_IFCQR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_NFCQR</t>
+  </si>
+  <si>
+    <t>FC_NFCQR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_NFCQR_DT</t>
+  </si>
+  <si>
+    <t>FC_NFCQR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_NFCQR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_SRF</t>
+  </si>
+  <si>
+    <t>FC_SRF_ACTN</t>
+  </si>
+  <si>
+    <t>FC_SRF_DT</t>
+  </si>
+  <si>
+    <t>FC_SRF_ALRT</t>
+  </si>
+  <si>
+    <t>FC_SRF_SOLST</t>
+  </si>
+  <si>
+    <t>FC_NMMF</t>
+  </si>
+  <si>
+    <t>FC_NMMF_ACTN</t>
+  </si>
+  <si>
+    <t>FC_NMMF_DT</t>
+  </si>
+  <si>
+    <t>FC_NMMF_ALRT</t>
+  </si>
+  <si>
+    <t>FC_NMMF_SOLST</t>
+  </si>
+  <si>
+    <t>FC_MMF</t>
+  </si>
+  <si>
+    <t>FC_MMF_ACTN</t>
+  </si>
+  <si>
+    <t>FC_MMF_DT</t>
+  </si>
+  <si>
+    <t>FC_MMF_ALRT</t>
+  </si>
+  <si>
+    <t>FC_MMF_SOLST</t>
+  </si>
+  <si>
+    <t>FC_ST_IFSR</t>
+  </si>
+  <si>
+    <t>FC_ST_IFSR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_ST_IFSR_DT</t>
+  </si>
+  <si>
+    <t>FC_ST_IFSR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_ST_IFSR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_NVR</t>
+  </si>
+  <si>
+    <t>FC_NVR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_NVR_DT</t>
+  </si>
+  <si>
+    <t>FC_NVR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_NVR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_AMR</t>
+  </si>
+  <si>
+    <t>FC_AMR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_AMR_DT</t>
+  </si>
+  <si>
+    <t>FC_AMR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_AMR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_NAMR</t>
+  </si>
+  <si>
+    <t>FC_NAMR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_NAMR_DT</t>
+  </si>
+  <si>
+    <t>FC_NAMR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_NAMR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_NER</t>
+  </si>
+  <si>
+    <t>FC_NER_ACTN</t>
+  </si>
+  <si>
+    <t>FC_NER_DT</t>
+  </si>
+  <si>
+    <t>FC_NER_ALRT</t>
+  </si>
+  <si>
+    <t>FC_NER_SOLST</t>
+  </si>
+  <si>
+    <t>FC_FQR</t>
+  </si>
+  <si>
+    <t>FC_FQR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_FQR_DT</t>
+  </si>
+  <si>
+    <t>FC_FQR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_FQR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_LT_IR</t>
+  </si>
+  <si>
+    <t>FC_LT_IR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_LT_IR_DT</t>
+  </si>
+  <si>
+    <t>FC_LT_IR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_LT_IR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_ULT_IR</t>
+  </si>
+  <si>
+    <t>FC_ULT_IR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_ULT_IR_DT</t>
+  </si>
+  <si>
+    <t>FC_ULT_IR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_ULT_IR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_LT_NIR</t>
+  </si>
+  <si>
+    <t>FC_LT_NIR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_LT_NIR_DT</t>
+  </si>
+  <si>
+    <t>FC_LT_NIR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_LT_NIR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_LT_LC_IR</t>
+  </si>
+  <si>
+    <t>FC_LT_LC_IR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_LT_LC_IR_DT</t>
+  </si>
+  <si>
+    <t>FC_LT_LC_IR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_LT_LC_IR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_ST_IR</t>
+  </si>
+  <si>
+    <t>FC_ST_IR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_ST_IR_DT</t>
+  </si>
+  <si>
+    <t>FC_ST_IR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_ST_IR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_UST_IR</t>
+  </si>
+  <si>
+    <t>FC_UST_IR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_UST_IR_DT</t>
+  </si>
+  <si>
+    <t>FC_UST_IR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_UST_IR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_ST_NIR</t>
+  </si>
+  <si>
+    <t>FC_ST_NIR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_ST_NIR_DT</t>
+  </si>
+  <si>
+    <t>FC_ST_NIR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_ST_NIR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_ST_LC_IR</t>
+  </si>
+  <si>
+    <t>FC_ST_LC_IR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_ST_LC_IR_DT</t>
+  </si>
+  <si>
+    <t>FC_ST_LC_IR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_ST_LC_IR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_IRR</t>
+  </si>
+  <si>
+    <t>FC_IDRR</t>
+  </si>
+  <si>
+    <t>FC_IU_EUEC</t>
+  </si>
+  <si>
+    <t>FC_LT_LC_IDR</t>
+  </si>
+  <si>
+    <t>FC_LT_LC_IDR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_LT_LC_IDR_DT</t>
+  </si>
+  <si>
+    <t>FC_LT_LC_IDR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_LT_LC_IDR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_ST_LC_IDR</t>
+  </si>
+  <si>
+    <t>FC_ST_LC_IDR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_ST_LC_IDR_DT</t>
+  </si>
+  <si>
+    <t>FC_ST_LC_IDR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_ST_LC_IDR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_LT_LC_NIR</t>
+  </si>
+  <si>
+    <t>FC_LT_LC_NIR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_LT_LC_NIR_DT</t>
+  </si>
+  <si>
+    <t>FC_LT_LC_NIR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_LT_LC_NIR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_BIR</t>
+  </si>
+  <si>
+    <t>FC_BIR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_BIR_DT</t>
+  </si>
+  <si>
+    <t>FC_BIR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_BIR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_FDIC_CERT</t>
+  </si>
+  <si>
+    <t>FC_CDO_AMR</t>
+  </si>
+  <si>
+    <t>FC_CDO_AMR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_CDO_AMR_DT</t>
+  </si>
+  <si>
+    <t>FC_CDO_AMR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_CDO_AMR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_TP_CDO_AMR</t>
+  </si>
+  <si>
+    <t>FC_TP_CDO_AMR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_TP_CDO_AMR_DT</t>
+  </si>
+  <si>
+    <t>FC_TP_CDO_AMR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_TP_CDO_AMR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_CFBR</t>
+  </si>
+  <si>
+    <t>FC_CFBR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_CFBR_DT</t>
+  </si>
+  <si>
+    <t>FC_CFBR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_CFBR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_IPR</t>
+  </si>
+  <si>
+    <t>FC_IPR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_IPR_DT</t>
+  </si>
+  <si>
+    <t>FC_IPR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_IPR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_NIFR</t>
+  </si>
+  <si>
+    <t>FC_NIFR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_NIFR_DT</t>
+  </si>
+  <si>
+    <t>FC_NIFR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_NIFR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_NPFPR</t>
+  </si>
+  <si>
+    <t>FC_NPFPR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_NPFPR_DT</t>
+  </si>
+  <si>
+    <t>FC_NPFPR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_NPFPR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_NEFR</t>
+  </si>
+  <si>
+    <t>FC_NEFR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_NEFR_DT</t>
+  </si>
+  <si>
+    <t>FC_NEFR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_NEFR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_NREFR</t>
+  </si>
+  <si>
+    <t>FC_NREFR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_NREFR_DT</t>
+  </si>
+  <si>
+    <t>FC_NREFR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_NREFR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_IGC_CDO_AMR</t>
+  </si>
+  <si>
+    <t>FC_IGC_CDO_AMR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_IGC_CDO_AMR_DT</t>
+  </si>
+  <si>
+    <t>FC_IGC_CDO_AMR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_IGC_CDO_AMR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_DCR</t>
+  </si>
+  <si>
+    <t>FC_DCR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_DCR_DT</t>
+  </si>
+  <si>
+    <t>FC_DCR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_DCR_SOLST</t>
   </si>
 </sst>
 </file>
@@ -8483,7 +9110,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8508,6 +9135,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -8523,7 +9156,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -8534,6 +9167,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8604,6 +9238,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCC00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -8899,10 +9538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2809"/>
+  <dimension ref="A1:A3018"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2540" workbookViewId="0">
-      <selection activeCell="D2558" sqref="D2558"/>
+    <sheetView tabSelected="1" topLeftCell="A2979" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2992" sqref="F2992"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22953,6 +23592,1051 @@
     <row r="2809" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2809" s="9" t="s">
         <v>2807</v>
+      </c>
+    </row>
+    <row r="2810" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2810" s="10" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="2811" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2811" s="10" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="2812" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2812" s="10" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="2813" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2813" s="10" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="2814" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2814" s="10" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="2815" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2815" s="10" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="2816" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2816" s="10" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="2817" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2817" s="10" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="2818" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2818" s="10" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="2819" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2819" s="10" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="2820" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2820" s="10" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="2821" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2821" s="10" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="2822" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2822" s="10" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="2823" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2823" s="10" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="2824" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2824" s="10" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="2825" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2825" s="10" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2826" s="10" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="2827" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2827" s="10" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="2828" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2828" s="10" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="2829" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2829" s="10" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="2830" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2830" s="10" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="2831" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2831" s="10" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="2832" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2832" s="10" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="2833" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2833" s="10" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="2834" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2834" s="10" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="2835" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2835" s="10" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="2836" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2836" s="10" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="2837" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2837" s="10" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="2838" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2838" s="10" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="2839" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2839" s="10" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="2840" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2840" s="10" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="2841" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2841" s="10" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="2842" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2842" s="10" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="2843" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2843" s="10" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="2844" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2844" s="10" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="2845" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2845" s="10" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="2846" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2846" s="10" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="2847" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2847" s="10" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="2848" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2848" s="10" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="2849" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2849" s="10" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="2850" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2850" s="10" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="2851" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2851" s="10" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="2852" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2852" s="10" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="2853" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2853" s="10" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="2854" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2854" s="10" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="2855" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2855" s="10" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="2856" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2856" s="10" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="2857" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2857" s="10" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="2858" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2858" s="10" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="2859" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2859" s="10" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="2860" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2860" s="10" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="2861" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2861" s="10" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="2862" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2862" s="10" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="2863" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2863" s="10" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="2864" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2864" s="10" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="2865" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2865" s="10" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="2866" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2866" s="10" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="2867" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2867" s="10" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="2868" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2868" s="10" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="2869" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2869" s="10" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="2870" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2870" s="10" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="2871" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2871" s="10" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="2872" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2872" s="10" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="2873" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2873" s="10" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="2874" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2874" s="10" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="2875" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2875" s="10" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="2876" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2876" s="10" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="2877" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2877" s="10" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="2878" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2878" s="10" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="2879" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2879" s="10" t="s">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="2880" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2880" s="10" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="2881" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2881" s="10" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2882" s="10" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2883" s="10" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2884" s="10" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="2885" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2885" s="10" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="2886" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2886" s="10" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2887" s="10" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="2888" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2888" s="10" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="2889" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2889" s="10" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="2890" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2890" s="10" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="2891" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2891" s="10" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2892" s="10" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2893" s="10" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2894" s="10" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2895" s="10" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="2896" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2896" s="10" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="2897" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2897" s="10" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="2898" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2898" s="10" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2899" s="10" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="2900" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2900" s="10" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="2901" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2901" s="10" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="2902" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2902" s="10" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="2903" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2903" s="10" t="s">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="2904" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2904" s="10" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="2905" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2905" s="10" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="2906" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2906" s="10" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="2907" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2907" s="10" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="2908" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2908" s="10" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="2909" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2909" s="10" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="2910" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2910" s="10" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2911" s="10" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2912" s="10" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="2913" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2913" s="10" t="s">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="2914" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2914" s="10" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="2915" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2915" s="10" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="2916" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2916" s="10" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="2917" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2917" s="10" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="2918" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2918" s="10" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="2919" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2919" s="10" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="2920" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2920" s="10" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="2921" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2921" s="10" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2922" s="10" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2923" s="10" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="2924" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2924" s="10" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="2925" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2925" s="10" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2926" s="10" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2927" s="10" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2928" s="10" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2929" s="10" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2930" s="10" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="2931" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2931" s="10" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="2932" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2932" s="10" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="2933" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2933" s="10" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="2934" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2934" s="10" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="2935" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2935" s="10" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="2936" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2936" s="10" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="2937" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2937" s="10" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="2938" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2938" s="10" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="2939" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2939" s="10" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="2940" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2940" s="10" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="2941" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2941" s="10" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="2942" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2942" s="10" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="2943" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2943" s="10" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="2944" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2944" s="10" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="2945" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2945" s="10" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="2946" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2946" s="10" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="2947" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2947" s="10" t="s">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="2948" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2948" s="10" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="2949" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2949" s="10" t="s">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="2950" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2950" s="10" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="2951" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2951" s="10" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="2952" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2952" s="10" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="2953" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2953" s="10" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="2954" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2954" s="10" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="2955" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2955" s="10" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="2956" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2956" s="10" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="2957" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2957" s="10" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="2958" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2958" s="10" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="2959" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2959" s="10" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2960" s="10" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2961" s="10" t="s">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2962" s="10" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2963" s="10" t="s">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2964" s="10" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2965" s="10" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2966" s="10" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2967" s="10" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2968" s="10" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2969" s="10" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2970" s="10" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2971" s="10" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2972" s="10" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2973" s="10" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2974" s="10" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2975" s="10" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2976" s="10" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2977" s="10" t="s">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2978" s="10" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2979" s="10" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2980" s="10" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2981" s="10" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2982" s="10" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2983" s="10" t="s">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2984" s="10" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2985" s="10" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2986" s="10" t="s">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2987" s="10" t="s">
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2988" s="10" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2989" s="10" t="s">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2990" s="10" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2991" s="10" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2992" s="10" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2993" s="10" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2994" s="10" t="s">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2995" s="10" t="s">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2996" s="10" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2997" s="10" t="s">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2998" s="10" t="s">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2999" s="10" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3000" s="10" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3001" s="10" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3002" s="10" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3003" s="10" t="s">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3004" s="10" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3005" s="10" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3006" s="10" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3007" s="10" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3008" s="10" t="s">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3009" s="10" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3010" s="10" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3011" s="10" t="s">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3012" s="10" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3013" s="10" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3014" s="10" t="s">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3015" s="10" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3016" s="10" t="s">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3017" s="10" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3018" s="10" t="s">
+        <v>3017</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/fitchfieldID.xlsx
+++ b/src/test/resources/fitchfieldID.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3018" uniqueCount="3018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3035" uniqueCount="3035">
   <si>
     <t>fitchFieldId</t>
   </si>
@@ -9070,6 +9070,57 @@
   </si>
   <si>
     <t>FC_DCR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_OTHER_ADJ_NET_INC_RECONCILIATION_BNK</t>
+  </si>
+  <si>
+    <t>FC_PUBLISHED_NET_INCOME_BNK</t>
+  </si>
+  <si>
+    <t>FC_DEFER_TAX_ASSETS_DEDUCTED_CORE_CAPITAL_BNK</t>
+  </si>
+  <si>
+    <t>FC_INTANGIBLES_DEDUCTED_CORE_CAPITAL_BNK</t>
+  </si>
+  <si>
+    <t>FC_GROSS_PREM_WRITTEN_NONL_INS</t>
+  </si>
+  <si>
+    <t>FC_GROSS_PREM_WRITTEN_LIFE_INS</t>
+  </si>
+  <si>
+    <t>FC_GROSS_PREM_WRITTEN_REIN_NONL_INS</t>
+  </si>
+  <si>
+    <t>FC_GROSS_PREM_WRITTEN_REIN_LIFE_INS</t>
+  </si>
+  <si>
+    <t>FC_GROSS_PREM_WRITTEN_OTHER_INS</t>
+  </si>
+  <si>
+    <t>FC_GROSS_PREM_WRITTEN_CONS_ADJ_INS</t>
+  </si>
+  <si>
+    <t>FC_NET_PREM_WRITTEN_NONL_INS</t>
+  </si>
+  <si>
+    <t>FC_NET_PREM_WRITTEN_LIFE_INS</t>
+  </si>
+  <si>
+    <t>FC_NET_PREM_WRITTEN_REINS_NONL_INS</t>
+  </si>
+  <si>
+    <t>FC_NET_PREM_WRITTEN_REINS_LIFE_INS</t>
+  </si>
+  <si>
+    <t>FC_NET_PREM_WRITTEN_OTHER_INS</t>
+  </si>
+  <si>
+    <t>FC_NET_PREM_WRITTEN_CONS_ADJ_INS</t>
+  </si>
+  <si>
+    <t>FC_AUDITOR_NAME</t>
   </si>
 </sst>
 </file>
@@ -9538,10 +9589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3018"/>
+  <dimension ref="A1:A3035"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2979" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2992" sqref="F2992"/>
+    <sheetView tabSelected="1" topLeftCell="A2996" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3019" sqref="A3019"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24637,6 +24688,91 @@
     <row r="3018" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3018" s="10" t="s">
         <v>3017</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3019" s="3" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3020" s="3" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3021" s="3" t="s">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3022" s="3" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3023" s="3" t="s">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3024" s="3" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3025" s="3" t="s">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3026" s="3" t="s">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3027" s="3" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3028" s="3" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3029" s="3" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3030" s="3" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3031" s="3" t="s">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3032" s="3" t="s">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3033" s="3" t="s">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3034" s="3" t="s">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3035" s="3" t="s">
+        <v>3034</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/fitchfieldID.xlsx
+++ b/src/test/resources/fitchfieldID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="28620" windowHeight="13935"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="20610" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3035" uniqueCount="3035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="3040">
   <si>
     <t>fitchFieldId</t>
   </si>
@@ -9121,6 +9121,21 @@
   </si>
   <si>
     <t>FC_AUDITOR_NAME</t>
+  </si>
+  <si>
+    <t>FC_IMQR</t>
+  </si>
+  <si>
+    <t>FC_IMQR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_IMQR_DT</t>
+  </si>
+  <si>
+    <t>FC_IMQR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_IMQR_SOLST</t>
   </si>
 </sst>
 </file>
@@ -9207,7 +9222,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -9219,6 +9234,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9589,15 +9607,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3035"/>
+  <dimension ref="A1:A3040"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2996" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3019" sqref="A3019"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="68" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -24775,27 +24794,52 @@
         <v>3034</v>
       </c>
     </row>
+    <row r="3036" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3036" s="11" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3037" s="11" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3038" s="11" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3039" s="11" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3040" s="11" t="s">
+        <v>3039</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A34">
     <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A2516 A2810:A1048576">
-    <cfRule type="expression" dxfId="5" priority="8">
+  <conditionalFormatting sqref="A2517:A2527">
+    <cfRule type="expression" dxfId="5" priority="14">
+      <formula>IF(FIND(" ",$E2517)&gt;0,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="4" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2528:A2809">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>IF(FIND(" ",$E2528)&gt;0,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A2516 A2810:A3035 A3038:A1048576">
+    <cfRule type="expression" dxfId="1" priority="16">
       <formula>IF(FIND(" ",$E1)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="4" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2517:A2527">
-    <cfRule type="expression" dxfId="3" priority="14">
-      <formula>IF(FIND(" ",$E2517)&gt;0,TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="duplicateValues" dxfId="2" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2528:A2809">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>IF(FIND(" ",$E2528)&gt;0,TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/fitchfieldID.xlsx
+++ b/src/test/resources/fitchfieldID.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3289" uniqueCount="3213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="3339">
   <si>
     <t>fitchFieldId</t>
   </si>
@@ -9677,6 +9677,384 @@
   </si>
   <si>
     <t>FC_PROVISION_PENSION_RESERVES_INS</t>
+  </si>
+  <si>
+    <t>FC_CMBS_SSR</t>
+  </si>
+  <si>
+    <t>FC_CMBS_SSR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_CMBS_SSR_DT</t>
+  </si>
+  <si>
+    <t>FC_CMBS_SSR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_CMBS_SSR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_CMBS_PSR</t>
+  </si>
+  <si>
+    <t>FC_CMBS_PSR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_CMBS_PSR_DT</t>
+  </si>
+  <si>
+    <t>FC_CMBS_PSR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_CMBS_PSR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_CMBS_MSR</t>
+  </si>
+  <si>
+    <t>FC_CMBS_MSR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_CMBS_MSR_DT</t>
+  </si>
+  <si>
+    <t>FC_CMBS_MSR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_CMBS_MSR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_RMBS_SSR</t>
+  </si>
+  <si>
+    <t>FC_RMBS_SSR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_RMBS_SSR_DT</t>
+  </si>
+  <si>
+    <t>FC_RMBS_SSR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_RMBS_SSR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSHER</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSHER_ACTN</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSHER_DT</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSHER_ALRT</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSHER_SOLST</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSHLTVR</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSHLTVR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSHLTVR_DT</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSHLTVR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSHLTVR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSSPR</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSSPR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSSPR_DT</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSSPR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSSPR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSAAR</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSAAR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSAAR_DT</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSAAR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSAAR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSPR</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSPR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSPR_DT</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSPR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSPR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_RMBS_MSR</t>
+  </si>
+  <si>
+    <t>FC_RMBS_MSR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_RMBS_MSR_DT</t>
+  </si>
+  <si>
+    <t>FC_RMBS_MSR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_RMBS_MSR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_ABS_SSR</t>
+  </si>
+  <si>
+    <t>FC_ABS_SSR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_ABS_SSR_DT</t>
+  </si>
+  <si>
+    <t>FC_ABS_SSR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_ABS_SSR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_ABS_MSR</t>
+  </si>
+  <si>
+    <t>FC_ABS_MSR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_ABS_MSR_DT</t>
+  </si>
+  <si>
+    <t>FC_ABS_MSR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_ABS_MSR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_ABS_PSR</t>
+  </si>
+  <si>
+    <t>FC_ABS_PSR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_ABS_PSR_DT</t>
+  </si>
+  <si>
+    <t>FC_ABS_PSR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_ABS_PSR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_ABS_SR</t>
+  </si>
+  <si>
+    <t>FC_ABS_SR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_ABS_SR_DT</t>
+  </si>
+  <si>
+    <t>FC_ABS_SR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_ABS_SR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSNC</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSNC_ACTN</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSNC_DT</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSNC_ALRT</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSNC_SOLST</t>
+  </si>
+  <si>
+    <t>FC_RMBS_SSNC</t>
+  </si>
+  <si>
+    <t>FC_RMBS_SSNC_ACTN</t>
+  </si>
+  <si>
+    <t>FC_RMBS_SSNC_DT</t>
+  </si>
+  <si>
+    <t>FC_RMBS_SSNC_ALRT</t>
+  </si>
+  <si>
+    <t>FC_RMBS_SSNC_SOLST</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSSRM</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSSRM_ACTN</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSSRM_DT</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSSRM_ALRT</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSSRM_SOLST</t>
+  </si>
+  <si>
+    <t>FC_CMBS_CLSR</t>
+  </si>
+  <si>
+    <t>FC_CMBS_CLSR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_CMBS_CLSR_DT</t>
+  </si>
+  <si>
+    <t>FC_CMBS_CLSR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_CMBS_CLSR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSSR</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSSR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSSR_DT</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSSR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSSR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSS_OARMS</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSS_OARMS_ACTN</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSS_OARMS_DT</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSS_OARMS_ALRT</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSS_OARMS_SOLST</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSSSL</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSSSL_ACTN</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSSSL_DT</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSSSL_ALRT</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSSSL_SOLST</t>
+  </si>
+  <si>
+    <t>FC_SBCPSR</t>
+  </si>
+  <si>
+    <t>FC_SBCPSR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_SBCPSR_DT</t>
+  </si>
+  <si>
+    <t>FC_SBCPSR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_SBCPSR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_SBCSSR</t>
+  </si>
+  <si>
+    <t>FC_SBCSSR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_SBCSSR_DT</t>
+  </si>
+  <si>
+    <t>FC_SBCSSR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_SBCSSR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSR</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSR_DT</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_RMBS_PSR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_CMBS_LLSSR</t>
+  </si>
+  <si>
+    <t>FC_CMBS_LLSSR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_CMBS_LLSSR_DT</t>
+  </si>
+  <si>
+    <t>FC_CMBS_LLSSR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_CMBS_LLSSR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_SPONSOR_SPV</t>
   </si>
 </sst>
 </file>
@@ -9768,7 +10146,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -9784,6 +10162,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10205,10 +10584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3289"/>
+  <dimension ref="A1:A3415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3296" sqref="B3296"/>
+    <sheetView tabSelected="1" topLeftCell="A3261" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3290" sqref="D3290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26660,6 +27039,636 @@
     <row r="3289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3289" s="12" t="s">
         <v>3211</v>
+      </c>
+    </row>
+    <row r="3290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3290" s="12" t="s">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="3291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3291" s="13" t="s">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="3292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3292" s="13" t="s">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="3293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3293" s="13" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="3294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3294" s="13" t="s">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="3295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3295" s="13" t="s">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="3296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3296" s="13" t="s">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="3297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3297" s="13" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="3298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3298" s="13" t="s">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="3299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3299" s="13" t="s">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="3300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3300" s="13" t="s">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="3301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3301" s="13" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="3302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3302" s="13" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="3303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3303" s="13" t="s">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="3304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3304" s="13" t="s">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="3305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3305" s="13" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="3306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3306" s="13" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3307" s="13" t="s">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="3308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3308" s="13" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="3309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3309" s="13" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3310" s="13" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3311" s="13" t="s">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="3312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3312" s="13" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="3313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3313" s="13" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="3314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3314" s="13" t="s">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="3315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3315" s="13" t="s">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="3316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3316" s="13" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="3317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3317" s="13" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="3318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3318" s="13" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="3319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3319" s="13" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="3320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3320" s="13" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="3321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3321" s="13" t="s">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="3322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3322" s="13" t="s">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="3323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3323" s="13" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="3324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3324" s="13" t="s">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="3325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3325" s="13" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="3326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3326" s="13" t="s">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="3327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3327" s="13" t="s">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="3328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3328" s="13" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="3329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3329" s="13" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="3330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3330" s="13" t="s">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="3331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3331" s="13" t="s">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="3332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3332" s="13" t="s">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="3333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3333" s="13" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3334" s="13" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="3335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3335" s="13" t="s">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="3336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3336" s="13" t="s">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="3337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3337" s="13" t="s">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="3338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3338" s="13" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="3339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3339" s="13" t="s">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="3340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3340" s="13" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="3341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3341" s="13" t="s">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="3342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3342" s="13" t="s">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="3343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3343" s="13" t="s">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="3344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3344" s="13" t="s">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="3345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3345" s="13" t="s">
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="3346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3346" s="13" t="s">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="3347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3347" s="13" t="s">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="3348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3348" s="13" t="s">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="3349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3349" s="13" t="s">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="3350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3350" s="13" t="s">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="3351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3351" s="13" t="s">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="3352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3352" s="13" t="s">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="3353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3353" s="13" t="s">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="3354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3354" s="13" t="s">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="3355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3355" s="13" t="s">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="3356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3356" s="13" t="s">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="3357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3357" s="13" t="s">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="3358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3358" s="13" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="3359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3359" s="13" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="3360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3360" s="13" t="s">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="3361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3361" s="13" t="s">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="3362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3362" s="13" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="3363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3363" s="13" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="3364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3364" s="13" t="s">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="3365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3365" s="13" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="3366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3366" s="13" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="3367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3367" s="13" t="s">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="3368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3368" s="13" t="s">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="3369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3369" s="13" t="s">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="3370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3370" s="13" t="s">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="3371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3371" s="13" t="s">
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="3372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3372" s="13" t="s">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="3373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3373" s="13" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="3374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3374" s="13" t="s">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="3375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3375" s="13" t="s">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="3376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3376" s="13" t="s">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="3377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3377" s="13" t="s">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="3378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3378" s="13" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="3379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3379" s="13" t="s">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="3380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3380" s="13" t="s">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="3381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3381" s="13" t="s">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="3382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3382" s="13" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="3383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3383" s="13" t="s">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="3384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3384" s="13" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="3385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3385" s="13" t="s">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="3386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3386" s="13" t="s">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="3387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3387" s="13" t="s">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="3388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3388" s="13" t="s">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="3389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3389" s="13" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="3390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3390" s="13" t="s">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="3391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3391" s="13" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="3392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3392" s="13" t="s">
+        <v>3314</v>
+      </c>
+    </row>
+    <row r="3393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3393" s="13" t="s">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="3394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3394" s="13" t="s">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="3395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3395" s="13" t="s">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="3396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3396" s="13" t="s">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="3397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3397" s="13" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="3398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3398" s="13" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="3399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3399" s="13" t="s">
+        <v>3321</v>
+      </c>
+    </row>
+    <row r="3400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3400" s="13" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="3401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3401" s="13" t="s">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="3402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3402" s="13" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="3403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3403" s="13" t="s">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="3404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3404" s="13" t="s">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="3405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3405" s="13" t="s">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="3406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3406" s="13" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="3407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3407" s="13" t="s">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="3408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3408" s="13" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="3409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3409" s="13" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="3410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3410" s="13" t="s">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="3411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3411" s="13" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="3412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3412" s="13" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="3413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3413" s="13" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="3414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3414" s="13" t="s">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="3415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3415" s="13" t="s">
+        <v>3337</v>
       </c>
     </row>
   </sheetData>
@@ -26685,23 +27694,23 @@
     </cfRule>
     <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3083:A3289">
+  <conditionalFormatting sqref="A3083:A3290">
     <cfRule type="expression" dxfId="5" priority="3">
       <formula>IF(FIND(" ",$E3083)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A2211 A2758:A2983 A2986:A2993 A3290:A1048576 A2213:A2464">
-    <cfRule type="expression" dxfId="3" priority="70">
+  <conditionalFormatting sqref="A2212">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>IF(FIND(" ",$E2212)&gt;0,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A2211 A2758:A2983 A2986:A2993 A3291:A1048576 A2213:A2464">
+    <cfRule type="expression" dxfId="1" priority="72">
       <formula>IF(FIND(" ",$E1)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="2" priority="71"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2212">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>IF(FIND(" ",$E2212)&gt;0,TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/test/resources/fitchfieldID.xlsx
+++ b/src/test/resources/fitchfieldID.xlsx
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$3289</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterate="1" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="3339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3589" uniqueCount="3388">
   <si>
     <t>fitchFieldId</t>
   </si>
@@ -10055,6 +10055,153 @@
   </si>
   <si>
     <t>FC_SPONSOR_SPV</t>
+  </si>
+  <si>
+    <t>FC_ISSUER_NAME</t>
+  </si>
+  <si>
+    <t>FC_ISSUER_TYPE_DESC</t>
+  </si>
+  <si>
+    <t>FC_CVB_FLAG</t>
+  </si>
+  <si>
+    <t>FC_ELTR</t>
+  </si>
+  <si>
+    <t>FC_ELTR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_ELTR_DT</t>
+  </si>
+  <si>
+    <t>FC_ELTR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_ELTR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_ESTR</t>
+  </si>
+  <si>
+    <t>FC_ESTR_ACTN</t>
+  </si>
+  <si>
+    <t>FC_ESTR_DT</t>
+  </si>
+  <si>
+    <t>FC_ESTR_ALRT</t>
+  </si>
+  <si>
+    <t>FC_ESTR_SOLST</t>
+  </si>
+  <si>
+    <t>FC_OPERATING_PROFIT_GLOBAL_RANK</t>
+  </si>
+  <si>
+    <t>FC_OPERATING_PROFIT_GLOBAL_RANK_CHG</t>
+  </si>
+  <si>
+    <t>FC_OPERATING_PROFIT_COUNTRY_RANK</t>
+  </si>
+  <si>
+    <t>FC_OPERATING_PROFIT_COUNTRY_RANK_CHG</t>
+  </si>
+  <si>
+    <t>FC_OPERATING_PROFIT_RANK_VALUE</t>
+  </si>
+  <si>
+    <t>FC_OPERATING_PROFIT_RANK_VALUE_CHG</t>
+  </si>
+  <si>
+    <t>FC_OPERATING_PROFIT_RANK_STMT_DATE</t>
+  </si>
+  <si>
+    <t>FC_OPERATING_PROFIT_RANK_ACCT_STANDARD</t>
+  </si>
+  <si>
+    <t>FC_OPERATING_PROFIT_RANK_CONS</t>
+  </si>
+  <si>
+    <t>FC_TOTAL_ASSET_GLOBAL_RANK</t>
+  </si>
+  <si>
+    <t>FC_TOTAL_ASSET_GLOBAL_RANK_CHG</t>
+  </si>
+  <si>
+    <t>FC_TOTAL_ASSET_COUNTRY_RANK</t>
+  </si>
+  <si>
+    <t>FC_TOTAL_ASSET_COUNTRY_RANK_CHG</t>
+  </si>
+  <si>
+    <t>FC_TOTAL_ASSET_RANK_VALUE</t>
+  </si>
+  <si>
+    <t>FC_TOTAL_ASSET_RANK_VALUE_CHG</t>
+  </si>
+  <si>
+    <t>FC_TOTAL_ASSET_RANK_STMT_DATE</t>
+  </si>
+  <si>
+    <t>FC_TOTAL_ASSET_RANK_ACCT_STANDARD</t>
+  </si>
+  <si>
+    <t>FC_TOTAL_ASSET_RANK_CONS</t>
+  </si>
+  <si>
+    <t>FC_TIER1_CAPITAL_GLOBAL_RANK</t>
+  </si>
+  <si>
+    <t>FC_TIER1_CAPITAL_GLOBAL_RANK_CHG</t>
+  </si>
+  <si>
+    <t>FC_TIER1_CAPITAL_COUNTRY_RANK</t>
+  </si>
+  <si>
+    <t>FC_TIER1_CAPITAL_COUNTRY_RANK_CHG</t>
+  </si>
+  <si>
+    <t>FC_TIER1_CAPITAL_RANK_VALUE</t>
+  </si>
+  <si>
+    <t>FC_TIER1_CAPITAL_RANK_VALUE_CHG</t>
+  </si>
+  <si>
+    <t>FC_TIER1_CAPITAL_RANK_STMT_DATE</t>
+  </si>
+  <si>
+    <t>FC_TIER1_CAPITAL_RANK_ACCT_STANDARD</t>
+  </si>
+  <si>
+    <t>FC_TIER1_CAPITAL_RANK_CONS</t>
+  </si>
+  <si>
+    <t>FC_TOTAL_WEIGHTED_RISK_GLOBAL_RANK</t>
+  </si>
+  <si>
+    <t>FC_TOTAL_WEIGHTED_RISK_GLOBAL_RANK_CHG</t>
+  </si>
+  <si>
+    <t>FC_TOTAL_WEIGHTED_RISK_COUNTRY_RANK</t>
+  </si>
+  <si>
+    <t>FC_TOTAL_WEIGHTED_RISK_COUNTRY_RANK_CHG</t>
+  </si>
+  <si>
+    <t>FC_TOTAL_WEIGHTED_RISK_RANK_VALUE</t>
+  </si>
+  <si>
+    <t>FC_TOTAL_WEIGHTED_RISK_RANK_VALUE_CHG</t>
+  </si>
+  <si>
+    <t>FC_TOTAL_WEIGHTED_RISK_RANK_STMT_DATE</t>
+  </si>
+  <si>
+    <t>FC_TOTAL_WEIGHTED_RISK_RANK_ACCT_STANDARD</t>
+  </si>
+  <si>
+    <t>FC_TOTAL_WEIGHTED_RISK_RANK_CONS</t>
   </si>
 </sst>
 </file>
@@ -10146,7 +10293,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -10163,13 +10310,60 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -10584,10 +10778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3415"/>
+  <dimension ref="A1:A3589"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3261" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3290" sqref="D3290"/>
+    <sheetView tabSelected="1" topLeftCell="A3540" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3554" sqref="B3554:B3589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27671,46 +27865,925 @@
         <v>3337</v>
       </c>
     </row>
+    <row r="3416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3416" s="9" t="s">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="3417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3417" s="9" t="s">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="3418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3418" s="9" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="3419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3419" s="9" t="s">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="3420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3420" s="9" t="s">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="3421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3421" s="9" t="s">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="3422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3422" s="9" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="3423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3423" s="9" t="s">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="3424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3424" s="9" t="s">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="3425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3425" s="9" t="s">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="3426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3426" s="9" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="3427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3427" s="9" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="3428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3428" s="9" t="s">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="3429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3429" s="9" t="s">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="3430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3430" s="9" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="3431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3431" s="9" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3432" s="9" t="s">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="3433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3433" s="9" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="3434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3434" s="9" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3435" s="9" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3436" s="9" t="s">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="3437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3437" s="9" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="3438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3438" s="9" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="3439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3439" s="9" t="s">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="3440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3440" s="9" t="s">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="3441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3441" s="9" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="3442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3442" s="9" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="3443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3443" s="9" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="3444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3444" s="9" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="3445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3445" s="9" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="3446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3446" s="9" t="s">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="3447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3447" s="9" t="s">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="3448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3448" s="9" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3449" s="9" t="s">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="3450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3450" s="9" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="3451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3451" s="9" t="s">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="3452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3452" s="9" t="s">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="3453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3453" s="9" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="3454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3454" s="9" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="3455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3455" s="9" t="s">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="3456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3456" s="9" t="s">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="3457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3457" s="9" t="s">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="3458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3458" s="9" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3459" s="9" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="3460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3460" s="9" t="s">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="3461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3461" s="9" t="s">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="3462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3462" s="9" t="s">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="3463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3463" s="9" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="3464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3464" s="9" t="s">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="3465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3465" s="9" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="3466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3466" s="9" t="s">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="3467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3467" s="9" t="s">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="3468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3468" s="9" t="s">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="3469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3469" s="9" t="s">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="3470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3470" s="9" t="s">
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="3471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3471" s="9" t="s">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="3472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3472" s="9" t="s">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="3473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3473" s="9" t="s">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="3474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3474" s="9" t="s">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="3475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3475" s="9" t="s">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="3476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3476" s="9" t="s">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="3477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3477" s="9" t="s">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="3478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3478" s="9" t="s">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="3479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3479" s="9" t="s">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="3480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3480" s="9" t="s">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="3481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3481" s="9" t="s">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="3482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3482" s="9" t="s">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="3483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3483" s="9" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="3484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3484" s="9" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="3485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3485" s="9" t="s">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="3486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3486" s="9" t="s">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="3487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3487" s="9" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="3488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3488" s="9" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="3489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3489" s="9" t="s">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="3490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3490" s="9" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="3491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3491" s="9" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="3492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3492" s="9" t="s">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="3493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3493" s="9" t="s">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="3494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3494" s="9" t="s">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="3495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3495" s="9" t="s">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="3496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3496" s="9" t="s">
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="3497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3497" s="9" t="s">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="3498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3498" s="9" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="3499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3499" s="9" t="s">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="3500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3500" s="9" t="s">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="3501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3501" s="9" t="s">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="3502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3502" s="9" t="s">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="3503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3503" s="9" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="3504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3504" s="9" t="s">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="3505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3505" s="9" t="s">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="3506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3506" s="9" t="s">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="3507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3507" s="9" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="3508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3508" s="9" t="s">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="3509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3509" s="9" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="3510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3510" s="9" t="s">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="3511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3511" s="9" t="s">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="3512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3512" s="9" t="s">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="3513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3513" s="9" t="s">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="3514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3514" s="9" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="3515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3515" s="9" t="s">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="3516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3516" s="9" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="3517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3517" s="9" t="s">
+        <v>3314</v>
+      </c>
+    </row>
+    <row r="3518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3518" s="9" t="s">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="3519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3519" s="9" t="s">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="3520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3520" s="9" t="s">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="3521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3521" s="9" t="s">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="3522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3522" s="9" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="3523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3523" s="9" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="3524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3524" s="9" t="s">
+        <v>3321</v>
+      </c>
+    </row>
+    <row r="3525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3525" s="9" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="3526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3526" s="9" t="s">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="3527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3527" s="9" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="3528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3528" s="9" t="s">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="3529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3529" s="9" t="s">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="3530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3530" s="9" t="s">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="3531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3531" s="9" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="3532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3532" s="9" t="s">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="3533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3533" s="9" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="3534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3534" s="9" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="3535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3535" s="9" t="s">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="3536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3536" s="9" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="3537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3537" s="9" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="3538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3538" s="9" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="3539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3539" s="9" t="s">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="3540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3540" s="9" t="s">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="3541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3541" s="9" t="s">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="3542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3542" s="9" t="s">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="3543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3543" s="9" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="3544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3544" s="14" t="s">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="3545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3545" s="14" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="3546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3546" s="11" t="s">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="3547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3547" s="11" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="3548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3548" s="14" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="3549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3549" s="14" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="3550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3550" s="14" t="s">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="3551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3551" s="11" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="3552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3552" s="11" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="3553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3553" s="14" t="s">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="3554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3554" s="4" t="s">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="3555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3555" s="4" t="s">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="3556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3556" s="4" t="s">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="3557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3557" s="4" t="s">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="3558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3558" s="4" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="3559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3559" s="4" t="s">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="3560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3560" s="4" t="s">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="3561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3561" s="4" t="s">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="3562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3562" s="4" t="s">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="3563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3563" s="4" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="3564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3564" s="4" t="s">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="3565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3565" s="4" t="s">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="3566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3566" s="4" t="s">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="3567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3567" s="4" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="3568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3568" s="4" t="s">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="3569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3569" s="4" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="3570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3570" s="4" t="s">
+        <v>3368</v>
+      </c>
+    </row>
+    <row r="3571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3571" s="4" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="3572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3572" s="4" t="s">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="3573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3573" s="4" t="s">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="3574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3574" s="4" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="3575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3575" s="4" t="s">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="3576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3576" s="4" t="s">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="3577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3577" s="4" t="s">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="3578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3578" s="4" t="s">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="3579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3579" s="4" t="s">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="3580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3580" s="4" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="3581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3581" s="4" t="s">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="3582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3582" s="4" t="s">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="3583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3583" s="4" t="s">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="3584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3584" s="4" t="s">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="3585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3585" s="4" t="s">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="3586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3586" s="4" t="s">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="3587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3587" s="4" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="3588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3588" s="4" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="3589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3589" s="4" t="s">
+        <v>3387</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:A3289"/>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2465:A2475">
-    <cfRule type="expression" dxfId="11" priority="22">
+    <cfRule type="expression" dxfId="16" priority="25">
       <formula>IF(FIND(" ",$E2465)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="10" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2476:A2757">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="14" priority="12">
       <formula>IF(FIND(" ",$E2476)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2994:A3082">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>IF(FIND(" ",$E2994)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3083:A3290">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>IF(FIND(" ",$E3083)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2212">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>IF(FIND(" ",$E2212)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A2211 A2758:A2983 A2986:A2993 A3291:A1048576 A2213:A2464">
-    <cfRule type="expression" dxfId="1" priority="72">
+  <conditionalFormatting sqref="A1:A2211 A2758:A2983 A2986:A2993 A3291:A3415 A2213:A2464 A3590:A1048576">
+    <cfRule type="expression" dxfId="6" priority="75">
       <formula>IF(FIND(" ",$E1)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3416:A3553">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3554:A3589">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>IF(FIND(" ",$E3554)&gt;0,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/test/resources/fitchfieldID.xlsx
+++ b/src/test/resources/fitchfieldID.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3589" uniqueCount="3388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3627" uniqueCount="3426">
   <si>
     <t>fitchFieldId</t>
   </si>
@@ -10202,6 +10202,120 @@
   </si>
   <si>
     <t>FC_TOTAL_WEIGHTED_RISK_RANK_CONS</t>
+  </si>
+  <si>
+    <t>FC_PERIOD_DT_FIR</t>
+  </si>
+  <si>
+    <t>FC_STATEMENT_ID_FIR</t>
+  </si>
+  <si>
+    <t>FC_TOTAL_ASSETS_FIR</t>
+  </si>
+  <si>
+    <t>FC_COUNTRY_RISK_IND_FIR</t>
+  </si>
+  <si>
+    <t>FC_REGION_FIR</t>
+  </si>
+  <si>
+    <t>FC_PERIOD_DT_RANK_FIR</t>
+  </si>
+  <si>
+    <t>FC_PROFIT_FIR</t>
+  </si>
+  <si>
+    <t>FC_LOAN_QUAL_FIR</t>
+  </si>
+  <si>
+    <t>FC_MODEL_SCORE_FIR</t>
+  </si>
+  <si>
+    <t>FC_FIR</t>
+  </si>
+  <si>
+    <t>FC_BAND_RANK_FIR</t>
+  </si>
+  <si>
+    <t>FC_PROFIT_CUTOFF_LOW_FIR</t>
+  </si>
+  <si>
+    <t>FC_PROFIT_CUTOFF_HIGH_FIR</t>
+  </si>
+  <si>
+    <t>FC_LOAN_QUAL_CUTOFF_LOW_FIR</t>
+  </si>
+  <si>
+    <t>FC_LOAN_QUAL_CUTOFF_HIGH_FIR</t>
+  </si>
+  <si>
+    <t>FC_TOTAL_ASSETS_NORM_MEAN_FIR</t>
+  </si>
+  <si>
+    <t>FC_TOTAL_ASSETS_NORM_SD_FIR</t>
+  </si>
+  <si>
+    <t>FC_PROFIT_NORM_MEAN_FIR</t>
+  </si>
+  <si>
+    <t>FC_PROFIT_NORM_SD_FIR</t>
+  </si>
+  <si>
+    <t>FC_LOAN_QUAL_NORM_MEAN_FIR</t>
+  </si>
+  <si>
+    <t>FC_LOAN_QUAL_NORM_SD_FIR</t>
+  </si>
+  <si>
+    <t>FC_PROFIT_COEFF_FIR</t>
+  </si>
+  <si>
+    <t>FC_LOAN_QUAL_COEFF_FIR</t>
+  </si>
+  <si>
+    <t>FC_TOTAL_ASSETS_COEFF_FIR</t>
+  </si>
+  <si>
+    <t>FC_CRI_MODEL_COEFF_FIR</t>
+  </si>
+  <si>
+    <t>FC_INTERCEPTS_NO_FIR</t>
+  </si>
+  <si>
+    <t>FC_INTERCEPTS_FIR</t>
+  </si>
+  <si>
+    <t>FC_MIN_MODEL_SCORE_FIR</t>
+  </si>
+  <si>
+    <t>FC_MAX_MODEL_SCORE_FIR</t>
+  </si>
+  <si>
+    <t>FC_NOTCH_DIFF_ALL_FIR</t>
+  </si>
+  <si>
+    <t>FC_ENTITIES_NOTCH_DIFF_ALL_FIR</t>
+  </si>
+  <si>
+    <t>FC_NOTCH_DIFF_CF_ALL_FIR</t>
+  </si>
+  <si>
+    <t>FC_NOTCH_DIFF_EM_FIR</t>
+  </si>
+  <si>
+    <t>FC_ENTITIES_NOTCH_DIFF_EM_FIR</t>
+  </si>
+  <si>
+    <t>FC_NOTCH_DIFF_CF_EM_FIR</t>
+  </si>
+  <si>
+    <t>FC_NOTCH_DIFF_DM_FIR</t>
+  </si>
+  <si>
+    <t>FC_ENTITIES_NOTCH_DIFF_DM_FIR</t>
+  </si>
+  <si>
+    <t>FC_NOTCH_DIFF_CF_DM_FIR</t>
   </si>
 </sst>
 </file>
@@ -10319,24 +10433,7 @@
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -10778,10 +10875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3589"/>
+  <dimension ref="A1:A3627"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3540" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3554" sqref="B3554:B3589"/>
+    <sheetView tabSelected="1" topLeftCell="A3597" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3599" sqref="D3599"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28735,55 +28832,245 @@
         <v>3387</v>
       </c>
     </row>
+    <row r="3590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3590" s="3" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="3591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3591" s="3" t="s">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="3592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3592" s="3" t="s">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="3593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3593" s="3" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="3594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3594" s="3" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="3595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3595" s="3" t="s">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="3596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3596" s="3" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="3597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3597" s="3" t="s">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="3598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3598" s="3" t="s">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="3599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3599" s="3" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="3600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3600" s="3" t="s">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="3601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3601" s="3" t="s">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="3602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3602" s="3" t="s">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="3603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3603" s="3" t="s">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="3604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3604" s="3" t="s">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="3605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3605" s="3" t="s">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="3606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3606" s="3" t="s">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="3607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3607" s="3" t="s">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="3608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3608" s="3" t="s">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="3609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3609" s="3" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="3610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3610" s="3" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="3611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3611" s="3" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="3612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3612" s="3" t="s">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="3613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3613" s="3" t="s">
+        <v>3411</v>
+      </c>
+    </row>
+    <row r="3614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3614" s="3" t="s">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="3615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3615" s="3" t="s">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="3616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3616" s="3" t="s">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="3617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3617" s="3" t="s">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="3618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3618" s="3" t="s">
+        <v>3416</v>
+      </c>
+    </row>
+    <row r="3619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3619" s="3" t="s">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="3620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3620" s="3" t="s">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="3621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3621" s="3" t="s">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="3622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3622" s="3" t="s">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="3623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3623" s="3" t="s">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="3624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3624" s="3" t="s">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="3625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3625" s="3" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="3626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3626" s="3" t="s">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="3627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3627" s="3" t="s">
+        <v>3425</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:A3289"/>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2465:A2475">
-    <cfRule type="expression" dxfId="16" priority="25">
+    <cfRule type="expression" dxfId="14" priority="25">
       <formula>IF(FIND(" ",$E2465)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="15" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2476:A2757">
-    <cfRule type="expression" dxfId="14" priority="12">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>IF(FIND(" ",$E2476)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2994:A3082">
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>IF(FIND(" ",$E2994)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3083:A3290">
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>IF(FIND(" ",$E3083)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2212">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>IF(FIND(" ",$E2212)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2211 A2758:A2983 A2986:A2993 A3291:A3415 A2213:A2464 A3590:A1048576">
-    <cfRule type="expression" dxfId="6" priority="75">
+    <cfRule type="expression" dxfId="4" priority="75">
       <formula>IF(FIND(" ",$E1)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="5" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3416:A3553">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3554:A3589">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>IF(FIND(" ",$E3554)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/test/resources/fitchfieldID.xlsx
+++ b/src/test/resources/fitchfieldID.xlsx
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$3289</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterate="1" calcOnSave="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3627" uniqueCount="3426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3600" uniqueCount="3399">
   <si>
     <t>fitchFieldId</t>
   </si>
@@ -10235,87 +10235,6 @@
   </si>
   <si>
     <t>FC_BAND_RANK_FIR</t>
-  </si>
-  <si>
-    <t>FC_PROFIT_CUTOFF_LOW_FIR</t>
-  </si>
-  <si>
-    <t>FC_PROFIT_CUTOFF_HIGH_FIR</t>
-  </si>
-  <si>
-    <t>FC_LOAN_QUAL_CUTOFF_LOW_FIR</t>
-  </si>
-  <si>
-    <t>FC_LOAN_QUAL_CUTOFF_HIGH_FIR</t>
-  </si>
-  <si>
-    <t>FC_TOTAL_ASSETS_NORM_MEAN_FIR</t>
-  </si>
-  <si>
-    <t>FC_TOTAL_ASSETS_NORM_SD_FIR</t>
-  </si>
-  <si>
-    <t>FC_PROFIT_NORM_MEAN_FIR</t>
-  </si>
-  <si>
-    <t>FC_PROFIT_NORM_SD_FIR</t>
-  </si>
-  <si>
-    <t>FC_LOAN_QUAL_NORM_MEAN_FIR</t>
-  </si>
-  <si>
-    <t>FC_LOAN_QUAL_NORM_SD_FIR</t>
-  </si>
-  <si>
-    <t>FC_PROFIT_COEFF_FIR</t>
-  </si>
-  <si>
-    <t>FC_LOAN_QUAL_COEFF_FIR</t>
-  </si>
-  <si>
-    <t>FC_TOTAL_ASSETS_COEFF_FIR</t>
-  </si>
-  <si>
-    <t>FC_CRI_MODEL_COEFF_FIR</t>
-  </si>
-  <si>
-    <t>FC_INTERCEPTS_NO_FIR</t>
-  </si>
-  <si>
-    <t>FC_INTERCEPTS_FIR</t>
-  </si>
-  <si>
-    <t>FC_MIN_MODEL_SCORE_FIR</t>
-  </si>
-  <si>
-    <t>FC_MAX_MODEL_SCORE_FIR</t>
-  </si>
-  <si>
-    <t>FC_NOTCH_DIFF_ALL_FIR</t>
-  </si>
-  <si>
-    <t>FC_ENTITIES_NOTCH_DIFF_ALL_FIR</t>
-  </si>
-  <si>
-    <t>FC_NOTCH_DIFF_CF_ALL_FIR</t>
-  </si>
-  <si>
-    <t>FC_NOTCH_DIFF_EM_FIR</t>
-  </si>
-  <si>
-    <t>FC_ENTITIES_NOTCH_DIFF_EM_FIR</t>
-  </si>
-  <si>
-    <t>FC_NOTCH_DIFF_CF_EM_FIR</t>
-  </si>
-  <si>
-    <t>FC_NOTCH_DIFF_DM_FIR</t>
-  </si>
-  <si>
-    <t>FC_ENTITIES_NOTCH_DIFF_DM_FIR</t>
-  </si>
-  <si>
-    <t>FC_NOTCH_DIFF_CF_DM_FIR</t>
   </si>
 </sst>
 </file>
@@ -10875,10 +10794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3627"/>
+  <dimension ref="A1:A3600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3597" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3599" sqref="D3599"/>
+    <sheetView tabSelected="1" topLeftCell="A3590" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3601" sqref="A3601:A3627"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28885,141 +28804,6 @@
     <row r="3600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3600" s="3" t="s">
         <v>3398</v>
-      </c>
-    </row>
-    <row r="3601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3601" s="3" t="s">
-        <v>3399</v>
-      </c>
-    </row>
-    <row r="3602" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3602" s="3" t="s">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="3603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3603" s="3" t="s">
-        <v>3401</v>
-      </c>
-    </row>
-    <row r="3604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3604" s="3" t="s">
-        <v>3402</v>
-      </c>
-    </row>
-    <row r="3605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3605" s="3" t="s">
-        <v>3403</v>
-      </c>
-    </row>
-    <row r="3606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3606" s="3" t="s">
-        <v>3404</v>
-      </c>
-    </row>
-    <row r="3607" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3607" s="3" t="s">
-        <v>3405</v>
-      </c>
-    </row>
-    <row r="3608" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3608" s="3" t="s">
-        <v>3406</v>
-      </c>
-    </row>
-    <row r="3609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3609" s="3" t="s">
-        <v>3407</v>
-      </c>
-    </row>
-    <row r="3610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3610" s="3" t="s">
-        <v>3408</v>
-      </c>
-    </row>
-    <row r="3611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3611" s="3" t="s">
-        <v>3409</v>
-      </c>
-    </row>
-    <row r="3612" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3612" s="3" t="s">
-        <v>3410</v>
-      </c>
-    </row>
-    <row r="3613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3613" s="3" t="s">
-        <v>3411</v>
-      </c>
-    </row>
-    <row r="3614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3614" s="3" t="s">
-        <v>3412</v>
-      </c>
-    </row>
-    <row r="3615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3615" s="3" t="s">
-        <v>3413</v>
-      </c>
-    </row>
-    <row r="3616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3616" s="3" t="s">
-        <v>3414</v>
-      </c>
-    </row>
-    <row r="3617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3617" s="3" t="s">
-        <v>3415</v>
-      </c>
-    </row>
-    <row r="3618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3618" s="3" t="s">
-        <v>3416</v>
-      </c>
-    </row>
-    <row r="3619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3619" s="3" t="s">
-        <v>3417</v>
-      </c>
-    </row>
-    <row r="3620" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3620" s="3" t="s">
-        <v>3418</v>
-      </c>
-    </row>
-    <row r="3621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3621" s="3" t="s">
-        <v>3419</v>
-      </c>
-    </row>
-    <row r="3622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3622" s="3" t="s">
-        <v>3420</v>
-      </c>
-    </row>
-    <row r="3623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3623" s="3" t="s">
-        <v>3421</v>
-      </c>
-    </row>
-    <row r="3624" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3624" s="3" t="s">
-        <v>3422</v>
-      </c>
-    </row>
-    <row r="3625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3625" s="3" t="s">
-        <v>3423</v>
-      </c>
-    </row>
-    <row r="3626" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3626" s="3" t="s">
-        <v>3424</v>
-      </c>
-    </row>
-    <row r="3627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3627" s="3" t="s">
-        <v>3425</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/fitchfieldID.xlsx
+++ b/src/test/resources/fitchfieldID.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3600" uniqueCount="3399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3604" uniqueCount="3403">
   <si>
     <t>fitchFieldId</t>
   </si>
@@ -10235,6 +10235,18 @@
   </si>
   <si>
     <t>FC_BAND_RANK_FIR</t>
+  </si>
+  <si>
+    <t>FC_PEER_ISSUER_IDS</t>
+  </si>
+  <si>
+    <t>FC_PEER_ISSUER_NAMES</t>
+  </si>
+  <si>
+    <t>FC_MRKT_SECTOR_ALL_ID</t>
+  </si>
+  <si>
+    <t>FC_MRKT_SECTOR_ALL_DESC</t>
   </si>
 </sst>
 </file>
@@ -10352,7 +10364,109 @@
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -10794,10 +10908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3600"/>
+  <dimension ref="A1:A3604"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3590" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3601" sqref="A3601:A3627"/>
+    <sheetView tabSelected="1" topLeftCell="A3596" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3601" sqref="A3601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28806,55 +28920,99 @@
         <v>3398</v>
       </c>
     </row>
+    <row r="3601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3601" s="3" t="s">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="3602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3602" s="3" t="s">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="3603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3603" s="3" t="s">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="3604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3604" s="3" t="s">
+        <v>3402</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:A3289"/>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2465:A2475">
-    <cfRule type="expression" dxfId="14" priority="25">
+    <cfRule type="expression" dxfId="26" priority="33">
       <formula>IF(FIND(" ",$E2465)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="13" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2476:A2757">
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="24" priority="20">
       <formula>IF(FIND(" ",$E2476)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2994:A3082">
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="22" priority="16">
       <formula>IF(FIND(" ",$E2994)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3083:A3290">
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="20" priority="14">
       <formula>IF(FIND(" ",$E3083)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2212">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="18" priority="12">
       <formula>IF(FIND(" ",$E2212)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A2211 A2758:A2983 A2986:A2993 A3291:A3415 A2213:A2464 A3590:A1048576">
-    <cfRule type="expression" dxfId="4" priority="75">
+  <conditionalFormatting sqref="A1:A2211 A2758:A2983 A2986:A2993 A3291:A3415 A2213:A2464 A3590:A3600 A3605:A1048576">
+    <cfRule type="expression" dxfId="16" priority="83">
       <formula>IF(FIND(" ",$E1)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="3" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3416:A3553">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3554:A3589">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="13" priority="9">
       <formula>IF(FIND(" ",$E3554)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3601">
+    <cfRule type="expression" dxfId="11" priority="7">
+      <formula>IF(FIND(" ",$E3601)&gt;0,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3602">
+    <cfRule type="expression" dxfId="9" priority="5">
+      <formula>IF(FIND(" ",$E3602)&gt;0,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3603">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>IF(FIND(" ",$E3603)&gt;0,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3604">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>IF(FIND(" ",$E3604)&gt;0,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/test/resources/fitchfieldID.xlsx
+++ b/src/test/resources/fitchfieldID.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3604" uniqueCount="3403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3606" uniqueCount="3405">
   <si>
     <t>fitchFieldId</t>
   </si>
@@ -10247,6 +10247,12 @@
   </si>
   <si>
     <t>FC_MRKT_SECTOR_ALL_DESC</t>
+  </si>
+  <si>
+    <t>FC_SWIFT_CODES</t>
+  </si>
+  <si>
+    <t>FC_LEI</t>
   </si>
 </sst>
 </file>
@@ -10364,7 +10370,41 @@
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -10908,10 +10948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3604"/>
+  <dimension ref="A1:A3606"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3596" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3601" sqref="A3601"/>
+    <sheetView tabSelected="1" topLeftCell="A3590" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3605" sqref="F3605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28940,77 +28980,99 @@
         <v>3402</v>
       </c>
     </row>
+    <row r="3605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3605" s="3" t="s">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="3606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3606" s="3" t="s">
+        <v>3404</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:A3289"/>
   <conditionalFormatting sqref="A34">
+    <cfRule type="duplicateValues" dxfId="31" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2465:A2475">
+    <cfRule type="expression" dxfId="30" priority="37">
+      <formula>IF(FIND(" ",$E2465)&gt;0,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="29" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2476:A2757">
+    <cfRule type="expression" dxfId="28" priority="24">
+      <formula>IF(FIND(" ",$E2476)&gt;0,TRUE,FALSE)</formula>
+    </cfRule>
     <cfRule type="duplicateValues" dxfId="27" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2465:A2475">
-    <cfRule type="expression" dxfId="26" priority="33">
-      <formula>IF(FIND(" ",$E2465)&gt;0,TRUE,FALSE)</formula>
+  <conditionalFormatting sqref="A2994:A3082">
+    <cfRule type="expression" dxfId="26" priority="20">
+      <formula>IF(FIND(" ",$E2994)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="25" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2476:A2757">
-    <cfRule type="expression" dxfId="24" priority="20">
-      <formula>IF(FIND(" ",$E2476)&gt;0,TRUE,FALSE)</formula>
+  <conditionalFormatting sqref="A3083:A3290">
+    <cfRule type="expression" dxfId="24" priority="18">
+      <formula>IF(FIND(" ",$E3083)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="23" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2994:A3082">
+  <conditionalFormatting sqref="A2212">
     <cfRule type="expression" dxfId="22" priority="16">
-      <formula>IF(FIND(" ",$E2994)&gt;0,TRUE,FALSE)</formula>
+      <formula>IF(FIND(" ",$E2212)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="duplicateValues" dxfId="21" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3083:A3290">
-    <cfRule type="expression" dxfId="20" priority="14">
-      <formula>IF(FIND(" ",$E3083)&gt;0,TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="duplicateValues" dxfId="19" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2212">
-    <cfRule type="expression" dxfId="18" priority="12">
-      <formula>IF(FIND(" ",$E2212)&gt;0,TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="duplicateValues" dxfId="17" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A2211 A2758:A2983 A2986:A2993 A3291:A3415 A2213:A2464 A3590:A3600 A3605:A1048576">
-    <cfRule type="expression" dxfId="16" priority="83">
+  <conditionalFormatting sqref="A1:A2211 A2758:A2983 A2986:A2993 A3291:A3415 A2213:A2464 A3590:A3600 A3607:A1048576">
+    <cfRule type="expression" dxfId="20" priority="87">
       <formula>IF(FIND(" ",$E1)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="15" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3416:A3553">
-    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3554:A3589">
+    <cfRule type="expression" dxfId="17" priority="13">
+      <formula>IF(FIND(" ",$E3554)&gt;0,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="16" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3601">
+    <cfRule type="expression" dxfId="15" priority="11">
+      <formula>IF(FIND(" ",$E3601)&gt;0,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3602">
     <cfRule type="expression" dxfId="13" priority="9">
-      <formula>IF(FIND(" ",$E3554)&gt;0,TRUE,FALSE)</formula>
+      <formula>IF(FIND(" ",$E3602)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="duplicateValues" dxfId="12" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3601">
+  <conditionalFormatting sqref="A3603">
     <cfRule type="expression" dxfId="11" priority="7">
-      <formula>IF(FIND(" ",$E3601)&gt;0,TRUE,FALSE)</formula>
+      <formula>IF(FIND(" ",$E3603)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="duplicateValues" dxfId="10" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3602">
+  <conditionalFormatting sqref="A3604">
     <cfRule type="expression" dxfId="9" priority="5">
-      <formula>IF(FIND(" ",$E3602)&gt;0,TRUE,FALSE)</formula>
+      <formula>IF(FIND(" ",$E3604)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="duplicateValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3603">
+  <conditionalFormatting sqref="A3605">
     <cfRule type="expression" dxfId="7" priority="3">
-      <formula>IF(FIND(" ",$E3603)&gt;0,TRUE,FALSE)</formula>
+      <formula>IF(FIND(" ",$E3605)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3604">
+  <conditionalFormatting sqref="A3606">
     <cfRule type="expression" dxfId="3" priority="1">
-      <formula>IF(FIND(" ",$E3604)&gt;0,TRUE,FALSE)</formula>
+      <formula>IF(FIND(" ",$E3606)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>

--- a/src/test/resources/fitchfieldID.xlsx
+++ b/src/test/resources/fitchfieldID.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$3289</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$3288</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3606" uniqueCount="3405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3605" uniqueCount="3404">
   <si>
     <t>fitchFieldId</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>FC_POST_TAX_PROFIT_TOTAL_EQUITY_AVG_BNK</t>
-  </si>
-  <si>
-    <t>FC_POST_TAX_PROFIT_LESS_PREF_DIV_COMM_EQUITY_AVG_BNK</t>
   </si>
   <si>
     <t>FC_PRE_PROV_OPER_PROFIT_TOTAL_ASSETS_AVG_BNK</t>
@@ -10370,7 +10367,7 @@
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="28">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -10514,40 +10511,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10948,10 +10911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3606"/>
+  <dimension ref="A1:A3605"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3590" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3605" sqref="F3605"/>
+    <sheetView tabSelected="1" topLeftCell="A404" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A416" sqref="A416:XFD416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10967,1582 +10930,1582 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
@@ -12552,12 +12515,12 @@
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
@@ -12567,17 +12530,17 @@
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
@@ -12587,7 +12550,7 @@
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
@@ -12597,12 +12560,12 @@
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
@@ -12612,12 +12575,12 @@
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
@@ -12627,27 +12590,27 @@
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
@@ -12657,72 +12620,72 @@
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="4" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
@@ -12732,7 +12695,7 @@
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
@@ -12742,137 +12705,137 @@
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
@@ -12992,7 +12955,7 @@
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="4" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
@@ -13207,7 +13170,7 @@
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
-        <v>79</v>
+        <v>302</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
@@ -13312,12 +13275,12 @@
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
-        <v>323</v>
+        <v>79</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
-        <v>80</v>
+        <v>323</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
@@ -13327,17 +13290,17 @@
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
-        <v>325</v>
+        <v>80</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
-        <v>81</v>
+        <v>325</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
-        <v>326</v>
+        <v>570</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
@@ -13347,7 +13310,7 @@
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
-        <v>572</v>
+        <v>326</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
@@ -13362,12 +13325,12 @@
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="3" t="s">
-        <v>329</v>
+        <v>81</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
-        <v>82</v>
+        <v>329</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
@@ -13501,13 +13464,13 @@
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" s="3" t="s">
+      <c r="A509" s="2" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" s="3" t="s">
         <v>356</v>
-      </c>
-    </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="2" t="s">
-        <v>1482</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
@@ -13516,18 +13479,18 @@
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512" s="3" t="s">
+      <c r="A512" s="2" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" s="3" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="2" t="s">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" s="2" t="s">
         <v>1413</v>
-      </c>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="3" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
@@ -13536,18 +13499,18 @@
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="2" t="s">
+      <c r="A516" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" s="2" t="s">
         <v>1415</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="3" t="s">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" s="3" t="s">
         <v>360</v>
-      </c>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="2" t="s">
-        <v>1416</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
@@ -13556,13 +13519,13 @@
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="3" t="s">
+      <c r="A520" s="2" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" s="3" t="s">
         <v>362</v>
-      </c>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" s="2" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
@@ -13732,7 +13695,7 @@
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555" s="3" t="s">
-        <v>396</v>
+        <v>82</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
@@ -13747,7 +13710,7 @@
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" s="3" t="s">
-        <v>85</v>
+        <v>396</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
@@ -13767,12 +13730,12 @@
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562" s="3" t="s">
-        <v>400</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" s="3" t="s">
-        <v>2290</v>
+        <v>400</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
@@ -14252,12 +14215,12 @@
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659" s="3" t="s">
-        <v>496</v>
+        <v>85</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660" s="3" t="s">
-        <v>86</v>
+        <v>496</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
@@ -14612,7 +14575,7 @@
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731" s="3" t="s">
-        <v>567</v>
+        <v>86</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
@@ -14622,7 +14585,7 @@
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A733" s="3" t="s">
-        <v>88</v>
+        <v>567</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
@@ -14637,7 +14600,7 @@
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A736" s="3" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
@@ -14962,7 +14925,7 @@
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A801" s="3" t="s">
-        <v>637</v>
+        <v>88</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.25">
@@ -15107,12 +15070,12 @@
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A830" s="3" t="s">
-        <v>117</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A831" s="3" t="s">
-        <v>2288</v>
+        <v>117</v>
       </c>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.25">
@@ -15122,7 +15085,7 @@
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A833" s="3" t="s">
-        <v>119</v>
+        <v>637</v>
       </c>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.25">
@@ -15322,12 +15285,12 @@
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A873" s="3" t="s">
-        <v>677</v>
+        <v>119</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A874" s="3" t="s">
-        <v>120</v>
+        <v>677</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
@@ -15347,12 +15310,12 @@
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A878" s="3" t="s">
-        <v>681</v>
+        <v>120</v>
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A879" s="3" t="s">
-        <v>121</v>
+        <v>681</v>
       </c>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
@@ -15372,12 +15335,12 @@
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A883" s="3" t="s">
-        <v>685</v>
+        <v>121</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A884" s="3" t="s">
-        <v>122</v>
+        <v>685</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
@@ -15397,22 +15360,22 @@
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A888" s="3" t="s">
-        <v>689</v>
+        <v>122</v>
       </c>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A889" s="3" t="s">
-        <v>123</v>
+        <v>689</v>
       </c>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A890" s="3" t="s">
-        <v>690</v>
+        <v>123</v>
       </c>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A891" s="3" t="s">
-        <v>124</v>
+        <v>690</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.25">
@@ -15422,12 +15385,12 @@
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A893" s="3" t="s">
-        <v>692</v>
+        <v>124</v>
       </c>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A894" s="3" t="s">
-        <v>125</v>
+        <v>692</v>
       </c>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.25">
@@ -15447,12 +15410,12 @@
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A898" s="3" t="s">
-        <v>696</v>
+        <v>125</v>
       </c>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A899" s="3" t="s">
-        <v>126</v>
+        <v>696</v>
       </c>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.25">
@@ -15477,7 +15440,7 @@
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A904" s="3" t="s">
-        <v>701</v>
+        <v>126</v>
       </c>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.25">
@@ -15487,7 +15450,7 @@
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A906" s="3" t="s">
-        <v>128</v>
+        <v>701</v>
       </c>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.25">
@@ -15507,7 +15470,7 @@
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A910" s="3" t="s">
-        <v>705</v>
+        <v>128</v>
       </c>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.25">
@@ -15532,12 +15495,12 @@
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A915" s="3" t="s">
-        <v>133</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A916" s="3" t="s">
-        <v>2289</v>
+        <v>133</v>
       </c>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
@@ -15807,17 +15770,17 @@
     </row>
     <row r="970" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A970" s="3" t="s">
-        <v>187</v>
+        <v>705</v>
       </c>
     </row>
     <row r="971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A971" s="3" t="s">
-        <v>706</v>
+        <v>187</v>
       </c>
     </row>
     <row r="972" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A972" s="3" t="s">
-        <v>188</v>
+        <v>706</v>
       </c>
     </row>
     <row r="973" spans="1:1" x14ac:dyDescent="0.25">
@@ -15842,12 +15805,12 @@
     </row>
     <row r="977" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A977" s="3" t="s">
-        <v>711</v>
+        <v>188</v>
       </c>
     </row>
     <row r="978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A978" s="3" t="s">
-        <v>189</v>
+        <v>711</v>
       </c>
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.25">
@@ -15942,12 +15905,12 @@
     </row>
     <row r="997" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A997" s="3" t="s">
-        <v>730</v>
+        <v>189</v>
       </c>
     </row>
     <row r="998" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A998" s="3" t="s">
-        <v>190</v>
+        <v>730</v>
       </c>
     </row>
     <row r="999" spans="1:1" x14ac:dyDescent="0.25">
@@ -15967,7 +15930,7 @@
     </row>
     <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1002" s="3" t="s">
-        <v>734</v>
+        <v>190</v>
       </c>
     </row>
     <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
@@ -15981,8 +15944,8 @@
       </c>
     </row>
     <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1005" s="3" t="s">
-        <v>193</v>
+      <c r="A1005" s="4" t="s">
+        <v>2296</v>
       </c>
     </row>
     <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
@@ -16171,163 +16134,163 @@
       </c>
     </row>
     <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1043" s="4" t="s">
-        <v>2334</v>
+      <c r="A1043" s="3" t="s">
+        <v>1594</v>
       </c>
     </row>
     <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1044" s="3" t="s">
-        <v>1595</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1045" s="3" t="s">
-        <v>1616</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1046" s="3" t="s">
-        <v>2069</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1047" s="3" t="s">
-        <v>2190</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1048" s="3" t="s">
-        <v>1583</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1049" s="3" t="s">
-        <v>1589</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1050" s="3" t="s">
-        <v>1594</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1051" s="3" t="s">
-        <v>1600</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1052" s="3" t="s">
-        <v>1604</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1053" s="3" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1054" s="3" t="s">
-        <v>1615</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1055" s="3" t="s">
-        <v>1622</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1056" s="3" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1057" s="3" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1058" s="3" t="s">
-        <v>1632</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1059" s="3" t="s">
-        <v>1638</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1060" s="3" t="s">
-        <v>2092</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1061" s="3" t="s">
-        <v>1701</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1062" s="3" t="s">
-        <v>2233</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1063" s="3" t="s">
-        <v>1711</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1064" s="3" t="s">
-        <v>2234</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1065" s="3" t="s">
-        <v>1731</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1066" s="3" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1067" s="3" t="s">
-        <v>1758</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1068" s="3" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1069" s="3" t="s">
-        <v>1765</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1070" s="3" t="s">
-        <v>1769</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1071" s="3" t="s">
-        <v>2043</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1072" s="3" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1073" s="3" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1074" s="3" t="s">
-        <v>1786</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
@@ -16337,37 +16300,37 @@
     </row>
     <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1076" s="3" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1077" s="3" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1078" s="3" t="s">
-        <v>1797</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1079" s="3" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1080" s="3" t="s">
-        <v>1822</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1081" s="3" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1082" s="3" t="s">
-        <v>1873</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
@@ -16382,67 +16345,67 @@
     </row>
     <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1085" s="3" t="s">
-        <v>1885</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1086" s="3" t="s">
-        <v>1907</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1087" s="3" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1088" s="3" t="s">
-        <v>1936</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1089" s="3" t="s">
-        <v>1941</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1090" s="3" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1091" s="3" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1092" s="3" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1093" s="3" t="s">
-        <v>1983</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1094" s="3" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1095" s="3" t="s">
-        <v>2008</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1096" s="3" t="s">
-        <v>2016</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1097" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1097" s="3" t="s">
-        <v>2025</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="1098" spans="1:1" x14ac:dyDescent="0.25">
@@ -16452,67 +16415,67 @@
     </row>
     <row r="1099" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1099" s="3" t="s">
-        <v>2029</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="1100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1100" s="3" t="s">
-        <v>2036</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1101" s="3" t="s">
-        <v>1662</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1102" s="3" t="s">
-        <v>2038</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1103" s="3" t="s">
-        <v>2046</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="1104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1104" s="3" t="s">
-        <v>2054</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="1105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1105" s="3" t="s">
-        <v>2057</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1106" s="3" t="s">
-        <v>2188</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1107" s="3" t="s">
-        <v>2231</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="1108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1108" s="3" t="s">
-        <v>2062</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="1109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1109" s="3" t="s">
-        <v>2068</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="1110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1110" s="3" t="s">
-        <v>2074</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="1111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1111" s="3" t="s">
-        <v>2077</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="1112" spans="1:1" x14ac:dyDescent="0.25">
@@ -16522,47 +16485,47 @@
     </row>
     <row r="1113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1113" s="3" t="s">
-        <v>2085</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="1114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1114" s="3" t="s">
-        <v>2093</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="1115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1115" s="3" t="s">
-        <v>2096</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="1116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1116" s="3" t="s">
-        <v>2100</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="1117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1117" s="3" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="1118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1118" s="3" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1119" s="3" t="s">
-        <v>2117</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="1120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1120" s="3" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="1121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1121" s="3" t="s">
-        <v>2130</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="1122" spans="1:1" x14ac:dyDescent="0.25">
@@ -16572,7 +16535,7 @@
     </row>
     <row r="1123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1123" s="3" t="s">
-        <v>2143</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="1124" spans="1:1" x14ac:dyDescent="0.25">
@@ -16587,12 +16550,12 @@
     </row>
     <row r="1126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1126" s="3" t="s">
-        <v>2157</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1127" s="3" t="s">
-        <v>2163</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="1128" spans="1:1" x14ac:dyDescent="0.25">
@@ -16602,12 +16565,12 @@
     </row>
     <row r="1129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1129" s="3" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="1130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1130" s="3" t="s">
-        <v>2172</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="1131" spans="1:1" x14ac:dyDescent="0.25">
@@ -16617,17 +16580,17 @@
     </row>
     <row r="1132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1132" s="3" t="s">
-        <v>2184</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1133" s="3" t="s">
-        <v>2189</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="1134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1134" s="3" t="s">
-        <v>2195</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="1135" spans="1:1" x14ac:dyDescent="0.25">
@@ -16637,62 +16600,62 @@
     </row>
     <row r="1136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1136" s="3" t="s">
-        <v>2200</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1137" s="3" t="s">
-        <v>2187</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="1138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1138" s="3" t="s">
-        <v>2171</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1139" s="3" t="s">
-        <v>2232</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="1140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1140" s="3" t="s">
-        <v>2214</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="1141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1141" s="3" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1142" s="3" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="1143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1143" s="3" t="s">
-        <v>2222</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="1144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1144" s="3" t="s">
-        <v>2065</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1145" s="3" t="s">
-        <v>2227</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="1146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1146" s="3" t="s">
-        <v>2230</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="1147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1147" s="3" t="s">
-        <v>2061</v>
+      <c r="A1147" s="4" t="s">
+        <v>2334</v>
       </c>
     </row>
     <row r="1148" spans="1:1" x14ac:dyDescent="0.25">
@@ -16701,18 +16664,18 @@
       </c>
     </row>
     <row r="1149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1149" s="4" t="s">
-        <v>2336</v>
+      <c r="A1149" s="3" t="s">
+        <v>2237</v>
       </c>
     </row>
     <row r="1150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1150" s="3" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="1151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1151" s="3" t="s">
-        <v>2240</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="1152" spans="1:1" x14ac:dyDescent="0.25">
@@ -16732,7 +16695,7 @@
     </row>
     <row r="1155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1155" s="3" t="s">
-        <v>2246</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="1156" spans="1:1" x14ac:dyDescent="0.25">
@@ -16742,12 +16705,12 @@
     </row>
     <row r="1157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1157" s="3" t="s">
-        <v>2266</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="1158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1158" s="3" t="s">
-        <v>2269</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="1159" spans="1:1" x14ac:dyDescent="0.25">
@@ -16757,17 +16720,17 @@
     </row>
     <row r="1160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1160" s="3" t="s">
-        <v>2273</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1161" s="3" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="1162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1162" s="3" t="s">
-        <v>2286</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="1163" spans="1:1" x14ac:dyDescent="0.25">
@@ -16906,13 +16869,13 @@
       </c>
     </row>
     <row r="1190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1190" s="3" t="s">
+      <c r="A1190" s="4" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1191" s="3" t="s">
         <v>1087</v>
-      </c>
-    </row>
-    <row r="1191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1191" s="4" t="s">
-        <v>2337</v>
       </c>
     </row>
     <row r="1192" spans="1:1" x14ac:dyDescent="0.25">
@@ -17102,7 +17065,7 @@
     </row>
     <row r="1229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1229" s="3" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1230" spans="1:1" x14ac:dyDescent="0.25">
@@ -17117,12 +17080,12 @@
     </row>
     <row r="1232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1232" s="3" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1233" s="3" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1234" spans="1:1" x14ac:dyDescent="0.25">
@@ -17556,13 +17519,13 @@
       </c>
     </row>
     <row r="1320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1320" s="3" t="s">
+      <c r="A1320" s="4" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1321" s="3" t="s">
         <v>1216</v>
-      </c>
-    </row>
-    <row r="1321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1321" s="4" t="s">
-        <v>2338</v>
       </c>
     </row>
     <row r="1322" spans="1:1" x14ac:dyDescent="0.25">
@@ -17586,8 +17549,8 @@
       </c>
     </row>
     <row r="1326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1326" s="3" t="s">
-        <v>1221</v>
+      <c r="A1326" s="4" t="s">
+        <v>2338</v>
       </c>
     </row>
     <row r="1327" spans="1:1" x14ac:dyDescent="0.25">
@@ -17636,8 +17599,8 @@
       </c>
     </row>
     <row r="1336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1336" s="4" t="s">
-        <v>2348</v>
+      <c r="A1336" s="3" t="s">
+        <v>1221</v>
       </c>
     </row>
     <row r="1337" spans="1:1" x14ac:dyDescent="0.25">
@@ -17732,7 +17695,7 @@
     </row>
     <row r="1355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1355" s="3" t="s">
-        <v>1240</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1356" spans="1:1" x14ac:dyDescent="0.25">
@@ -17757,7 +17720,7 @@
     </row>
     <row r="1360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1360" s="3" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1361" spans="1:1" x14ac:dyDescent="0.25">
@@ -17967,7 +17930,7 @@
     </row>
     <row r="1402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1402" s="3" t="s">
-        <v>1303</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="1403" spans="1:1" x14ac:dyDescent="0.25">
@@ -18027,7 +17990,7 @@
     </row>
     <row r="1414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1414" s="3" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="1415" spans="1:1" x14ac:dyDescent="0.25">
@@ -18037,7 +18000,7 @@
     </row>
     <row r="1416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1416" s="3" t="s">
-        <v>1326</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1417" spans="1:1" x14ac:dyDescent="0.25">
@@ -18102,7 +18065,7 @@
     </row>
     <row r="1429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1429" s="3" t="s">
-        <v>1253</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1430" spans="1:1" x14ac:dyDescent="0.25">
@@ -18117,7 +18080,7 @@
     </row>
     <row r="1432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1432" s="3" t="s">
-        <v>1261</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="1433" spans="1:1" x14ac:dyDescent="0.25">
@@ -18151,27 +18114,27 @@
       </c>
     </row>
     <row r="1439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1439" s="3" t="s">
-        <v>1310</v>
+      <c r="A1439" s="5" t="s">
+        <v>2348</v>
       </c>
     </row>
     <row r="1440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1440" s="5" t="s">
-        <v>2349</v>
+      <c r="A1440" s="3" t="s">
+        <v>1323</v>
       </c>
     </row>
     <row r="1441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1441" s="3" t="s">
-        <v>1324</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="1442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1442" s="3" t="s">
-        <v>1059</v>
+      <c r="A1442" s="5" t="s">
+        <v>2349</v>
       </c>
     </row>
     <row r="1443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1443" s="5" t="s">
+      <c r="A1443" s="4" t="s">
         <v>2350</v>
       </c>
     </row>
@@ -18181,23 +18144,23 @@
       </c>
     </row>
     <row r="1445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1445" s="4" t="s">
-        <v>2352</v>
+      <c r="A1445" s="3" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="1446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1446" s="3" t="s">
-        <v>995</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="1447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1447" s="3" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="1448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1448" s="3" t="s">
-        <v>1048</v>
+      <c r="A1448" s="6" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="1449" spans="1:1" x14ac:dyDescent="0.25">
@@ -18271,8 +18234,8 @@
       </c>
     </row>
     <row r="1463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1463" s="6" t="s">
-        <v>953</v>
+      <c r="A1463" s="7" t="s">
+        <v>2352</v>
       </c>
     </row>
     <row r="1464" spans="1:1" x14ac:dyDescent="0.25">
@@ -18336,7 +18299,7 @@
       </c>
     </row>
     <row r="1476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1476" s="7" t="s">
+      <c r="A1476" s="4" t="s">
         <v>2365</v>
       </c>
     </row>
@@ -18351,7 +18314,7 @@
       </c>
     </row>
     <row r="1479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1479" s="4" t="s">
+      <c r="A1479" s="7" t="s">
         <v>2368</v>
       </c>
     </row>
@@ -18491,7 +18454,7 @@
       </c>
     </row>
     <row r="1507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1507" s="7" t="s">
+      <c r="A1507" s="4" t="s">
         <v>2396</v>
       </c>
     </row>
@@ -18531,7 +18494,7 @@
       </c>
     </row>
     <row r="1515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1515" s="4" t="s">
+      <c r="A1515" s="7" t="s">
         <v>2404</v>
       </c>
     </row>
@@ -18551,7 +18514,7 @@
       </c>
     </row>
     <row r="1519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1519" s="7" t="s">
+      <c r="A1519" s="4" t="s">
         <v>2408</v>
       </c>
     </row>
@@ -18671,8 +18634,8 @@
       </c>
     </row>
     <row r="1543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1543" s="4" t="s">
-        <v>2432</v>
+      <c r="A1543" s="3" t="s">
+        <v>1663</v>
       </c>
     </row>
     <row r="1544" spans="1:1" x14ac:dyDescent="0.25">
@@ -18857,17 +18820,17 @@
     </row>
     <row r="1580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1580" s="3" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1581" s="3" t="s">
-        <v>1702</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="1582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1582" s="3" t="s">
-        <v>2293</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="1583" spans="1:1" x14ac:dyDescent="0.25">
@@ -18907,22 +18870,22 @@
     </row>
     <row r="1590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1590" s="3" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1591" s="3" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="1592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1592" s="3" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="1593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1593" s="3" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1594" spans="1:1" x14ac:dyDescent="0.25">
@@ -18987,7 +18950,7 @@
     </row>
     <row r="1606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1606" s="3" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="1607" spans="1:1" x14ac:dyDescent="0.25">
@@ -19102,7 +19065,7 @@
     </row>
     <row r="1629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1629" s="3" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="1630" spans="1:1" x14ac:dyDescent="0.25">
@@ -19112,7 +19075,7 @@
     </row>
     <row r="1631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1631" s="3" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="1632" spans="1:1" x14ac:dyDescent="0.25">
@@ -19127,7 +19090,7 @@
     </row>
     <row r="1634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1634" s="3" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="1635" spans="1:1" x14ac:dyDescent="0.25">
@@ -19137,7 +19100,7 @@
     </row>
     <row r="1636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1636" s="3" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1637" spans="1:1" x14ac:dyDescent="0.25">
@@ -19152,7 +19115,7 @@
     </row>
     <row r="1639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1639" s="3" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="1640" spans="1:1" x14ac:dyDescent="0.25">
@@ -19176,8 +19139,8 @@
       </c>
     </row>
     <row r="1644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1644" s="3" t="s">
-        <v>1774</v>
+      <c r="A1644" s="4" t="s">
+        <v>2432</v>
       </c>
     </row>
     <row r="1645" spans="1:1" x14ac:dyDescent="0.25">
@@ -19186,13 +19149,13 @@
       </c>
     </row>
     <row r="1646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1646" s="4" t="s">
-        <v>2434</v>
+      <c r="A1646" s="3" t="s">
+        <v>1776</v>
       </c>
     </row>
     <row r="1647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1647" s="3" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="1648" spans="1:1" x14ac:dyDescent="0.25">
@@ -19202,12 +19165,12 @@
     </row>
     <row r="1649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1649" s="3" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="1650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1650" s="3" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="1651" spans="1:1" x14ac:dyDescent="0.25">
@@ -19217,7 +19180,7 @@
     </row>
     <row r="1652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1652" s="3" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="1653" spans="1:1" x14ac:dyDescent="0.25">
@@ -19242,27 +19205,27 @@
     </row>
     <row r="1657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1657" s="3" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="1658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1658" s="3" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1659" s="3" t="s">
-        <v>1796</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1660" s="3" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="1661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1661" s="3" t="s">
-        <v>1821</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="1662" spans="1:1" x14ac:dyDescent="0.25">
@@ -19367,27 +19330,27 @@
     </row>
     <row r="1682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1682" s="3" t="s">
-        <v>1818</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="1683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1683" s="3" t="s">
-        <v>1713</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="1684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1684" s="3" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1685" s="3" t="s">
-        <v>1715</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="1686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1686" s="3" t="s">
-        <v>1778</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="1687" spans="1:1" x14ac:dyDescent="0.25">
@@ -19491,18 +19454,18 @@
       </c>
     </row>
     <row r="1707" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1707" s="3" t="s">
-        <v>1843</v>
+      <c r="A1707" s="4" t="s">
+        <v>2434</v>
       </c>
     </row>
     <row r="1708" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1708" s="4" t="s">
-        <v>2435</v>
+      <c r="A1708" s="3" t="s">
+        <v>2290</v>
       </c>
     </row>
     <row r="1709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1709" s="3" t="s">
-        <v>2291</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1710" spans="1:1" x14ac:dyDescent="0.25">
@@ -19517,12 +19480,12 @@
     </row>
     <row r="1712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1712" s="3" t="s">
-        <v>1847</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="1713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1713" s="3" t="s">
-        <v>2044</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1714" spans="1:1" x14ac:dyDescent="0.25">
@@ -19632,12 +19595,12 @@
     </row>
     <row r="1735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1735" s="3" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1736" s="3" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1737" spans="1:1" x14ac:dyDescent="0.25">
@@ -19682,22 +19645,22 @@
     </row>
     <row r="1745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1745" s="3" t="s">
-        <v>1882</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="1746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1746" s="3" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1747" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1747" s="3" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1748" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1748" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1749" spans="1:1" x14ac:dyDescent="0.25">
@@ -19717,12 +19680,12 @@
     </row>
     <row r="1752" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1752" s="3" t="s">
-        <v>1895</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="1753" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1753" s="3" t="s">
-        <v>2292</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1754" spans="1:1" x14ac:dyDescent="0.25">
@@ -19777,7 +19740,7 @@
     </row>
     <row r="1764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1764" s="3" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="1765" spans="1:1" x14ac:dyDescent="0.25">
@@ -19846,13 +19809,13 @@
       </c>
     </row>
     <row r="1778" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1778" s="3" t="s">
-        <v>1921</v>
+      <c r="A1778" s="4" t="s">
+        <v>2435</v>
       </c>
     </row>
     <row r="1779" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1779" s="4" t="s">
-        <v>2436</v>
+      <c r="A1779" s="3" t="s">
+        <v>1922</v>
       </c>
     </row>
     <row r="1780" spans="1:1" x14ac:dyDescent="0.25">
@@ -19902,7 +19865,7 @@
     </row>
     <row r="1789" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1789" s="3" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1790" spans="1:1" x14ac:dyDescent="0.25">
@@ -19912,7 +19875,7 @@
     </row>
     <row r="1791" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1791" s="3" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="1792" spans="1:1" x14ac:dyDescent="0.25">
@@ -19932,7 +19895,7 @@
     </row>
     <row r="1795" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1795" s="3" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1796" spans="1:1" x14ac:dyDescent="0.25">
@@ -20066,13 +20029,13 @@
       </c>
     </row>
     <row r="1822" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1822" s="3" t="s">
-        <v>1968</v>
+      <c r="A1822" s="4" t="s">
+        <v>2436</v>
       </c>
     </row>
     <row r="1823" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1823" s="4" t="s">
-        <v>2437</v>
+      <c r="A1823" s="3" t="s">
+        <v>1969</v>
       </c>
     </row>
     <row r="1824" spans="1:1" x14ac:dyDescent="0.25">
@@ -20107,17 +20070,17 @@
     </row>
     <row r="1830" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1830" s="3" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="1831" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1831" s="3" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1832" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1832" s="3" t="s">
-        <v>1980</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1833" spans="1:1" x14ac:dyDescent="0.25">
@@ -20222,37 +20185,37 @@
     </row>
     <row r="1853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1853" s="3" t="s">
-        <v>2004</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="1854" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1854" s="3" t="s">
-        <v>1982</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1855" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1855" s="3" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="1856" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1856" s="3" t="s">
-        <v>2007</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="1857" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1857" s="3" t="s">
-        <v>1887</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="1858" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1858" s="3" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="1859" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1859" s="3" t="s">
-        <v>1889</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1860" spans="1:1" x14ac:dyDescent="0.25">
@@ -20287,7 +20250,7 @@
     </row>
     <row r="1866" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1866" s="3" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="1867" spans="1:1" x14ac:dyDescent="0.25">
@@ -20327,7 +20290,7 @@
     </row>
     <row r="1874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1874" s="3" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="1875" spans="1:1" x14ac:dyDescent="0.25">
@@ -20337,17 +20300,17 @@
     </row>
     <row r="1876" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1876" s="3" t="s">
-        <v>2027</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1877" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1877" s="3" t="s">
-        <v>2033</v>
+      <c r="A1877" s="4" t="s">
+        <v>2437</v>
       </c>
     </row>
     <row r="1878" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1878" s="4" t="s">
-        <v>2438</v>
+      <c r="A1878" s="3" t="s">
+        <v>2029</v>
       </c>
     </row>
     <row r="1879" spans="1:1" x14ac:dyDescent="0.25">
@@ -20362,7 +20325,7 @@
     </row>
     <row r="1881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1881" s="3" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="1882" spans="1:1" x14ac:dyDescent="0.25">
@@ -20371,38 +20334,38 @@
       </c>
     </row>
     <row r="1883" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1883" s="3" t="s">
-        <v>2035</v>
+      <c r="A1883" s="4" t="s">
+        <v>2438</v>
       </c>
     </row>
     <row r="1884" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1884" s="4" t="s">
-        <v>2439</v>
+      <c r="A1884" s="3" t="s">
+        <v>1843</v>
       </c>
     </row>
     <row r="1885" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1885" s="3" t="s">
-        <v>1844</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1886" s="3" t="s">
-        <v>2186</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="1887" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1887" s="3" t="s">
-        <v>2055</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="1888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1888" s="3" t="s">
-        <v>1775</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1889" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1889" s="3" t="s">
-        <v>2225</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="1890" spans="1:1" x14ac:dyDescent="0.25">
@@ -20412,22 +20375,22 @@
     </row>
     <row r="1891" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1891" s="3" t="s">
-        <v>2042</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="1892" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1892" s="3" t="s">
-        <v>2040</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="1893" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1893" s="3" t="s">
-        <v>2175</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="1894" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1894" s="3" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="1895" spans="1:1" x14ac:dyDescent="0.25">
@@ -20462,17 +20425,17 @@
     </row>
     <row r="1901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1901" s="3" t="s">
-        <v>2053</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="1902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1902" s="3" t="s">
-        <v>2058</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="1903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1903" s="3" t="s">
-        <v>2070</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="1904" spans="1:1" x14ac:dyDescent="0.25">
@@ -20482,7 +20445,7 @@
     </row>
     <row r="1905" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1905" s="3" t="s">
-        <v>2060</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="1906" spans="1:1" x14ac:dyDescent="0.25">
@@ -20492,12 +20455,12 @@
     </row>
     <row r="1907" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1907" s="3" t="s">
-        <v>2064</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="1908" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1908" s="3" t="s">
-        <v>2177</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="1909" spans="1:1" x14ac:dyDescent="0.25">
@@ -20507,12 +20470,12 @@
     </row>
     <row r="1910" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1910" s="3" t="s">
-        <v>2067</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1911" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1911" s="3" t="s">
-        <v>1922</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="1912" spans="1:1" x14ac:dyDescent="0.25">
@@ -20527,7 +20490,7 @@
     </row>
     <row r="1914" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1914" s="3" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="1915" spans="1:1" x14ac:dyDescent="0.25">
@@ -20537,7 +20500,7 @@
     </row>
     <row r="1916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1916" s="3" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="1917" spans="1:1" x14ac:dyDescent="0.25">
@@ -20547,27 +20510,27 @@
     </row>
     <row r="1918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1918" s="3" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="1919" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1919" s="3" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="1920" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1920" s="3" t="s">
-        <v>2080</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="1921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1921" s="3" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="1922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1922" s="3" t="s">
-        <v>2082</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="1923" spans="1:1" x14ac:dyDescent="0.25">
@@ -20597,7 +20560,7 @@
     </row>
     <row r="1928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1928" s="3" t="s">
-        <v>2091</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="1929" spans="1:1" x14ac:dyDescent="0.25">
@@ -20607,7 +20570,7 @@
     </row>
     <row r="1930" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1930" s="3" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="1931" spans="1:1" x14ac:dyDescent="0.25">
@@ -20621,13 +20584,13 @@
       </c>
     </row>
     <row r="1933" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1933" s="3" t="s">
-        <v>2099</v>
+      <c r="A1933" s="4" t="s">
+        <v>2439</v>
       </c>
     </row>
     <row r="1934" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1934" s="4" t="s">
-        <v>2440</v>
+      <c r="A1934" s="3" t="s">
+        <v>2100</v>
       </c>
     </row>
     <row r="1935" spans="1:1" x14ac:dyDescent="0.25">
@@ -20677,12 +20640,12 @@
     </row>
     <row r="1944" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1944" s="3" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="1945" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1945" s="3" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="1946" spans="1:1" x14ac:dyDescent="0.25">
@@ -20696,13 +20659,13 @@
       </c>
     </row>
     <row r="1948" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1948" s="3" t="s">
-        <v>2116</v>
+      <c r="A1948" s="4" t="s">
+        <v>2440</v>
       </c>
     </row>
     <row r="1949" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1949" s="4" t="s">
-        <v>2441</v>
+      <c r="A1949" s="3" t="s">
+        <v>2117</v>
       </c>
     </row>
     <row r="1950" spans="1:1" x14ac:dyDescent="0.25">
@@ -20752,12 +20715,12 @@
     </row>
     <row r="1959" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1959" s="3" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="1960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1960" s="3" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="1961" spans="1:1" x14ac:dyDescent="0.25">
@@ -20812,7 +20775,7 @@
     </row>
     <row r="1971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1971" s="3" t="s">
-        <v>2141</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="1972" spans="1:1" x14ac:dyDescent="0.25">
@@ -20866,13 +20829,13 @@
       </c>
     </row>
     <row r="1982" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1982" s="3" t="s">
-        <v>2154</v>
+      <c r="A1982" s="4" t="s">
+        <v>2441</v>
       </c>
     </row>
     <row r="1983" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1983" s="4" t="s">
-        <v>2442</v>
+      <c r="A1983" s="3" t="s">
+        <v>2157</v>
       </c>
     </row>
     <row r="1984" spans="1:1" x14ac:dyDescent="0.25">
@@ -20897,7 +20860,7 @@
     </row>
     <row r="1988" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1988" s="3" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="1989" spans="1:1" x14ac:dyDescent="0.25">
@@ -20922,17 +20885,17 @@
     </row>
     <row r="1993" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1993" s="3" t="s">
-        <v>2168</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="1994" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1994" s="3" t="s">
-        <v>1663</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1995" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1995" s="3" t="s">
-        <v>1848</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="1996" spans="1:1" x14ac:dyDescent="0.25">
@@ -20947,27 +20910,27 @@
     </row>
     <row r="1998" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1998" s="3" t="s">
-        <v>2203</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="1999" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1999" s="3" t="s">
-        <v>1776</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="2000" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2000" s="3" t="s">
-        <v>2228</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="2001" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2001" s="3" t="s">
-        <v>2176</v>
+      <c r="A2001" s="4" t="s">
+        <v>2442</v>
       </c>
     </row>
     <row r="2002" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2002" s="4" t="s">
-        <v>2443</v>
+      <c r="A2002" s="3" t="s">
+        <v>2190</v>
       </c>
     </row>
     <row r="2003" spans="1:1" x14ac:dyDescent="0.25">
@@ -20987,7 +20950,7 @@
     </row>
     <row r="2006" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2006" s="3" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="2007" spans="1:1" x14ac:dyDescent="0.25">
@@ -21002,17 +20965,17 @@
     </row>
     <row r="2009" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2009" s="3" t="s">
-        <v>2198</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="2010" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2010" s="3" t="s">
-        <v>2204</v>
+      <c r="A2010" s="4" t="s">
+        <v>1310</v>
       </c>
     </row>
     <row r="2011" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2011" s="4" t="s">
-        <v>1311</v>
+      <c r="A2011" s="3" t="s">
+        <v>2207</v>
       </c>
     </row>
     <row r="2012" spans="1:1" x14ac:dyDescent="0.25">
@@ -21042,17 +21005,17 @@
     </row>
     <row r="2017" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2017" s="3" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="2018" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2018" s="3" t="s">
+      <c r="A2018" s="4" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2019" s="3" t="s">
         <v>2215</v>
-      </c>
-    </row>
-    <row r="2019" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2019" s="4" t="s">
-        <v>2444</v>
       </c>
     </row>
     <row r="2020" spans="1:1" x14ac:dyDescent="0.25">
@@ -21062,72 +21025,72 @@
     </row>
     <row r="2021" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2021" s="3" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="2022" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2022" s="3" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="2023" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2023" s="3" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="2024" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2024" s="3" t="s">
-        <v>2223</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="2025" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2025" s="3" t="s">
-        <v>2185</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="2026" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2026" s="3" t="s">
-        <v>2226</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="2027" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2027" s="3" t="s">
-        <v>1969</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="2028" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2028" s="3" t="s">
-        <v>2229</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="2029" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2029" s="3" t="s">
-        <v>2039</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="2030" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2030" s="3" t="s">
-        <v>2224</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="2031" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2031" s="3" t="s">
-        <v>2206</v>
+      <c r="A2031" s="4" t="s">
+        <v>2444</v>
       </c>
     </row>
     <row r="2032" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2032" s="4" t="s">
+      <c r="A2032" s="3" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2033" s="4" t="s">
         <v>2445</v>
       </c>
     </row>
-    <row r="2033" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2033" s="3" t="s">
+    <row r="2034" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2034" s="3" t="s">
         <v>2235</v>
-      </c>
-    </row>
-    <row r="2034" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2034" s="4" t="s">
-        <v>2446</v>
       </c>
     </row>
     <row r="2035" spans="1:1" x14ac:dyDescent="0.25">
@@ -21137,17 +21100,17 @@
     </row>
     <row r="2036" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2036" s="3" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="2037" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2037" s="3" t="s">
-        <v>2239</v>
+      <c r="A2037" s="4" t="s">
+        <v>2446</v>
       </c>
     </row>
     <row r="2038" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2038" s="4" t="s">
-        <v>2447</v>
+      <c r="A2038" s="3" t="s">
+        <v>2240</v>
       </c>
     </row>
     <row r="2039" spans="1:1" x14ac:dyDescent="0.25">
@@ -21156,8 +21119,8 @@
       </c>
     </row>
     <row r="2040" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2040" s="3" t="s">
-        <v>2242</v>
+      <c r="A2040" s="4" t="s">
+        <v>2447</v>
       </c>
     </row>
     <row r="2041" spans="1:1" x14ac:dyDescent="0.25">
@@ -21166,8 +21129,8 @@
       </c>
     </row>
     <row r="2042" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2042" s="4" t="s">
-        <v>2449</v>
+      <c r="A2042" s="3" t="s">
+        <v>2246</v>
       </c>
     </row>
     <row r="2043" spans="1:1" x14ac:dyDescent="0.25">
@@ -21257,7 +21220,7 @@
     </row>
     <row r="2060" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2060" s="3" t="s">
-        <v>2264</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="2061" spans="1:1" x14ac:dyDescent="0.25">
@@ -21267,7 +21230,7 @@
     </row>
     <row r="2062" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2062" s="3" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="2063" spans="1:1" x14ac:dyDescent="0.25">
@@ -21277,7 +21240,7 @@
     </row>
     <row r="2064" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2064" s="3" t="s">
-        <v>2271</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="2065" spans="1:1" x14ac:dyDescent="0.25">
@@ -21327,12 +21290,12 @@
     </row>
     <row r="2074" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2074" s="3" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="2075" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2075" s="3" t="s">
-        <v>2285</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="2076" spans="1:1" x14ac:dyDescent="0.25">
@@ -21342,32 +21305,32 @@
     </row>
     <row r="2077" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2077" s="3" t="s">
-        <v>2174</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="2078" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2078" s="3" t="s">
-        <v>2037</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="2079" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2079" s="3" t="s">
-        <v>2207</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="2080" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2080" s="3" t="s">
-        <v>2056</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="2081" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2081" s="3" t="s">
-        <v>2205</v>
+      <c r="A2081" s="4" t="s">
+        <v>2449</v>
       </c>
     </row>
     <row r="2082" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2082" s="4" t="s">
-        <v>2450</v>
+      <c r="A2082" s="3" t="s">
+        <v>2177</v>
       </c>
     </row>
     <row r="2083" spans="1:1" x14ac:dyDescent="0.25">
@@ -21392,7 +21355,7 @@
     </row>
     <row r="2087" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2087" s="3" t="s">
-        <v>2182</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="2088" spans="1:1" x14ac:dyDescent="0.25">
@@ -21417,7 +21380,7 @@
     </row>
     <row r="2092" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2092" s="3" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="2093" spans="1:1" x14ac:dyDescent="0.25">
@@ -21442,7 +21405,7 @@
     </row>
     <row r="2097" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2097" s="3" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="2098" spans="1:1" x14ac:dyDescent="0.25">
@@ -21462,7 +21425,7 @@
     </row>
     <row r="2101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2101" s="3" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="2102" spans="1:1" x14ac:dyDescent="0.25">
@@ -21472,12 +21435,12 @@
     </row>
     <row r="2103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2103" s="3" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="2104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2104" s="3" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="2105" spans="1:1" x14ac:dyDescent="0.25">
@@ -21492,7 +21455,7 @@
     </row>
     <row r="2107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2107" s="3" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="2108" spans="1:1" x14ac:dyDescent="0.25">
@@ -21507,7 +21470,7 @@
     </row>
     <row r="2110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2110" s="3" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="2111" spans="1:1" x14ac:dyDescent="0.25">
@@ -21537,12 +21500,12 @@
     </row>
     <row r="2116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2116" s="3" t="s">
-        <v>1614</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="2117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2117" s="3" t="s">
-        <v>1618</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="2118" spans="1:1" x14ac:dyDescent="0.25">
@@ -21562,7 +21525,7 @@
     </row>
     <row r="2121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2121" s="3" t="s">
-        <v>1642</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="2122" spans="1:1" x14ac:dyDescent="0.25">
@@ -21577,7 +21540,7 @@
     </row>
     <row r="2124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2124" s="3" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="2125" spans="1:1" x14ac:dyDescent="0.25">
@@ -21592,7 +21555,7 @@
     </row>
     <row r="2127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2127" s="3" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="2128" spans="1:1" x14ac:dyDescent="0.25">
@@ -21607,12 +21570,12 @@
     </row>
     <row r="2130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2130" s="3" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="2131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2131" s="3" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="2132" spans="1:1" x14ac:dyDescent="0.25">
@@ -21632,17 +21595,17 @@
     </row>
     <row r="2135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2135" s="3" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="2136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2136" s="3" t="s">
-        <v>1633</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="2137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2137" s="3" t="s">
-        <v>1617</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="2138" spans="1:1" x14ac:dyDescent="0.25">
@@ -21662,11 +21625,11 @@
     </row>
     <row r="2141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2141" s="3" t="s">
-        <v>1646</v>
+        <v>734</v>
       </c>
     </row>
     <row r="2142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2142" s="3" t="s">
+      <c r="A2142" s="6" t="s">
         <v>735</v>
       </c>
     </row>
@@ -21687,27 +21650,27 @@
     </row>
     <row r="2146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2146" s="6" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="2147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2147" s="6" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="2148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2148" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="2149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2149" s="6" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="2150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2150" s="6" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="2151" spans="1:1" x14ac:dyDescent="0.25">
@@ -21717,17 +21680,17 @@
     </row>
     <row r="2152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2152" s="6" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="2153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2153" s="6" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2154" s="6" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="2155" spans="1:1" x14ac:dyDescent="0.25">
@@ -21737,17 +21700,17 @@
     </row>
     <row r="2156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2156" s="6" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="2157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2157" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="2158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2158" s="6" t="s">
-        <v>750</v>
+        <v>800</v>
       </c>
     </row>
     <row r="2159" spans="1:1" x14ac:dyDescent="0.25">
@@ -21767,7 +21730,7 @@
     </row>
     <row r="2162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2162" s="6" t="s">
-        <v>804</v>
+        <v>751</v>
       </c>
     </row>
     <row r="2163" spans="1:1" x14ac:dyDescent="0.25">
@@ -21796,13 +21759,13 @@
       </c>
     </row>
     <row r="2168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2168" s="6" t="s">
-        <v>757</v>
+      <c r="A2168" s="8" t="s">
+        <v>2450</v>
       </c>
     </row>
     <row r="2169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2169" s="8" t="s">
-        <v>2451</v>
+      <c r="A2169" s="6" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="2170" spans="1:1" x14ac:dyDescent="0.25">
@@ -21832,7 +21795,7 @@
     </row>
     <row r="2175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2175" s="6" t="s">
-        <v>791</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2176" spans="1:1" x14ac:dyDescent="0.25">
@@ -21847,7 +21810,7 @@
     </row>
     <row r="2178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2178" s="6" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
     </row>
     <row r="2179" spans="1:1" x14ac:dyDescent="0.25">
@@ -21922,7 +21885,7 @@
     </row>
     <row r="2193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2193" s="6" t="s">
-        <v>779</v>
+        <v>797</v>
       </c>
     </row>
     <row r="2194" spans="1:1" x14ac:dyDescent="0.25">
@@ -21937,7 +21900,7 @@
     </row>
     <row r="2196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2196" s="6" t="s">
-        <v>800</v>
+        <v>779</v>
       </c>
     </row>
     <row r="2197" spans="1:1" x14ac:dyDescent="0.25">
@@ -21952,7 +21915,7 @@
     </row>
     <row r="2199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2199" s="6" t="s">
-        <v>782</v>
+        <v>761</v>
       </c>
     </row>
     <row r="2200" spans="1:1" x14ac:dyDescent="0.25">
@@ -21967,7 +21930,7 @@
     </row>
     <row r="2202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2202" s="6" t="s">
-        <v>764</v>
+        <v>782</v>
       </c>
     </row>
     <row r="2203" spans="1:1" x14ac:dyDescent="0.25">
@@ -21982,7 +21945,7 @@
     </row>
     <row r="2205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2205" s="6" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
     </row>
     <row r="2206" spans="1:1" x14ac:dyDescent="0.25">
@@ -22011,13 +21974,13 @@
       </c>
     </row>
     <row r="2211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2211" s="6" t="s">
-        <v>797</v>
+      <c r="A2211" s="8" t="s">
+        <v>3211</v>
       </c>
     </row>
     <row r="2212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2212" s="8" t="s">
-        <v>3212</v>
+      <c r="A2212" s="6" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="2213" spans="1:1" x14ac:dyDescent="0.25">
@@ -22032,7 +21995,7 @@
     </row>
     <row r="2215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2215" s="6" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
     </row>
     <row r="2216" spans="1:1" x14ac:dyDescent="0.25">
@@ -22072,7 +22035,7 @@
     </row>
     <row r="2223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2223" s="6" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
     </row>
     <row r="2224" spans="1:1" x14ac:dyDescent="0.25">
@@ -22102,7 +22065,7 @@
     </row>
     <row r="2229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2229" s="6" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
     </row>
     <row r="2230" spans="1:1" x14ac:dyDescent="0.25">
@@ -22172,7 +22135,7 @@
     </row>
     <row r="2243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2243" s="6" t="s">
-        <v>835</v>
+        <v>917</v>
       </c>
     </row>
     <row r="2244" spans="1:1" x14ac:dyDescent="0.25">
@@ -22187,7 +22150,7 @@
     </row>
     <row r="2246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2246" s="6" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
     </row>
     <row r="2247" spans="1:1" x14ac:dyDescent="0.25">
@@ -22197,157 +22160,157 @@
     </row>
     <row r="2248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2248" s="6" t="s">
-        <v>926</v>
+        <v>848</v>
       </c>
     </row>
     <row r="2249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2249" s="6" t="s">
-        <v>849</v>
+        <v>859</v>
       </c>
     </row>
     <row r="2250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2250" s="6" t="s">
-        <v>860</v>
+        <v>870</v>
       </c>
     </row>
     <row r="2251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2251" s="6" t="s">
-        <v>871</v>
+        <v>882</v>
       </c>
     </row>
     <row r="2252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2252" s="6" t="s">
-        <v>883</v>
+        <v>893</v>
       </c>
     </row>
     <row r="2253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2253" s="6" t="s">
-        <v>894</v>
+        <v>849</v>
       </c>
     </row>
     <row r="2254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2254" s="6" t="s">
-        <v>850</v>
+        <v>860</v>
       </c>
     </row>
     <row r="2255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2255" s="6" t="s">
-        <v>861</v>
+        <v>871</v>
       </c>
     </row>
     <row r="2256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2256" s="6" t="s">
-        <v>872</v>
+        <v>883</v>
       </c>
     </row>
     <row r="2257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2257" s="6" t="s">
-        <v>884</v>
+        <v>894</v>
       </c>
     </row>
     <row r="2258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2258" s="6" t="s">
-        <v>895</v>
+        <v>850</v>
       </c>
     </row>
     <row r="2259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2259" s="6" t="s">
-        <v>851</v>
+        <v>861</v>
       </c>
     </row>
     <row r="2260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2260" s="6" t="s">
-        <v>862</v>
+        <v>872</v>
       </c>
     </row>
     <row r="2261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2261" s="6" t="s">
-        <v>873</v>
+        <v>884</v>
       </c>
     </row>
     <row r="2262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2262" s="6" t="s">
-        <v>885</v>
+        <v>895</v>
       </c>
     </row>
     <row r="2263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2263" s="6" t="s">
-        <v>896</v>
+        <v>851</v>
       </c>
     </row>
     <row r="2264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2264" s="6" t="s">
-        <v>852</v>
+        <v>862</v>
       </c>
     </row>
     <row r="2265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2265" s="6" t="s">
-        <v>863</v>
+        <v>873</v>
       </c>
     </row>
     <row r="2266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2266" s="6" t="s">
-        <v>874</v>
+        <v>885</v>
       </c>
     </row>
     <row r="2267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2267" s="6" t="s">
-        <v>886</v>
+        <v>896</v>
       </c>
     </row>
     <row r="2268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2268" s="6" t="s">
-        <v>897</v>
+        <v>852</v>
       </c>
     </row>
     <row r="2269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2269" s="6" t="s">
-        <v>853</v>
+        <v>863</v>
       </c>
     </row>
     <row r="2270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2270" s="6" t="s">
-        <v>864</v>
+        <v>874</v>
       </c>
     </row>
     <row r="2271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2271" s="6" t="s">
-        <v>875</v>
+        <v>886</v>
       </c>
     </row>
     <row r="2272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2272" s="6" t="s">
-        <v>887</v>
+        <v>897</v>
       </c>
     </row>
     <row r="2273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2273" s="6" t="s">
-        <v>898</v>
+        <v>857</v>
       </c>
     </row>
     <row r="2274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2274" s="6" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
     </row>
     <row r="2275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2275" s="6" t="s">
-        <v>869</v>
+        <v>879</v>
       </c>
     </row>
     <row r="2276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2276" s="6" t="s">
-        <v>880</v>
+        <v>891</v>
       </c>
     </row>
     <row r="2277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2277" s="6" t="s">
-        <v>892</v>
+        <v>902</v>
       </c>
     </row>
     <row r="2278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2278" s="6" t="s">
-        <v>903</v>
+        <v>838</v>
       </c>
     </row>
     <row r="2279" spans="1:1" x14ac:dyDescent="0.25">
@@ -22362,7 +22325,7 @@
     </row>
     <row r="2281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2281" s="6" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="2282" spans="1:1" x14ac:dyDescent="0.25">
@@ -22387,37 +22350,37 @@
     </row>
     <row r="2286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2286" s="6" t="s">
-        <v>848</v>
+        <v>905</v>
       </c>
     </row>
     <row r="2287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2287" s="6" t="s">
-        <v>906</v>
+        <v>853</v>
       </c>
     </row>
     <row r="2288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2288" s="6" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
     </row>
     <row r="2289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2289" s="6" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
     </row>
     <row r="2290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2290" s="6" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
     </row>
     <row r="2291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2291" s="6" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
     </row>
     <row r="2292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2292" s="6" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
     </row>
     <row r="2293" spans="1:1" x14ac:dyDescent="0.25">
@@ -22427,22 +22390,22 @@
     </row>
     <row r="2294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2294" s="6" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
     </row>
     <row r="2295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2295" s="6" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
     </row>
     <row r="2296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2296" s="6" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
     </row>
     <row r="2297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2297" s="6" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
     </row>
     <row r="2298" spans="1:1" x14ac:dyDescent="0.25">
@@ -22452,7 +22415,7 @@
     </row>
     <row r="2299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2299" s="6" t="s">
-        <v>905</v>
+        <v>854</v>
       </c>
     </row>
     <row r="2300" spans="1:1" x14ac:dyDescent="0.25">
@@ -22467,7 +22430,7 @@
     </row>
     <row r="2302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2302" s="6" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
     </row>
     <row r="2303" spans="1:1" x14ac:dyDescent="0.25">
@@ -22482,7 +22445,7 @@
     </row>
     <row r="2305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2305" s="6" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
     </row>
     <row r="2306" spans="1:1" x14ac:dyDescent="0.25">
@@ -22497,7 +22460,7 @@
     </row>
     <row r="2308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2308" s="6" t="s">
-        <v>879</v>
+        <v>888</v>
       </c>
     </row>
     <row r="2309" spans="1:1" x14ac:dyDescent="0.25">
@@ -22512,7 +22475,7 @@
     </row>
     <row r="2311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2311" s="6" t="s">
-        <v>891</v>
+        <v>899</v>
       </c>
     </row>
     <row r="2312" spans="1:1" x14ac:dyDescent="0.25">
@@ -22527,7 +22490,7 @@
     </row>
     <row r="2314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2314" s="6" t="s">
-        <v>902</v>
+        <v>841</v>
       </c>
     </row>
     <row r="2315" spans="1:1" x14ac:dyDescent="0.25">
@@ -22537,17 +22500,17 @@
     </row>
     <row r="2316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2316" s="6" t="s">
-        <v>843</v>
+        <v>907</v>
       </c>
     </row>
     <row r="2317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2317" s="6" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="2318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2318" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="2319" spans="1:1" x14ac:dyDescent="0.25">
@@ -22592,27 +22555,27 @@
     </row>
     <row r="2327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2327" s="6" t="s">
-        <v>917</v>
+        <v>835</v>
       </c>
     </row>
     <row r="2328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2328" s="6" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="2329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2329" s="6" t="s">
-        <v>838</v>
+        <v>920</v>
       </c>
     </row>
     <row r="2330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2330" s="6" t="s">
-        <v>921</v>
+        <v>836</v>
       </c>
     </row>
     <row r="2331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2331" s="6" t="s">
-        <v>837</v>
+        <v>921</v>
       </c>
     </row>
     <row r="2332" spans="1:1" x14ac:dyDescent="0.25">
@@ -22621,13 +22584,13 @@
       </c>
     </row>
     <row r="2333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2333" s="6" t="s">
-        <v>923</v>
+      <c r="A2333" s="7" t="s">
+        <v>2451</v>
       </c>
     </row>
     <row r="2334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2334" s="7" t="s">
-        <v>2452</v>
+      <c r="A2334" s="6" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="2335" spans="1:1" x14ac:dyDescent="0.25">
@@ -22651,13 +22614,13 @@
       </c>
     </row>
     <row r="2339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2339" s="6" t="s">
+      <c r="A2339" s="7" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2340" s="6" t="s">
         <v>931</v>
-      </c>
-    </row>
-    <row r="2340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2340" s="7" t="s">
-        <v>2453</v>
       </c>
     </row>
     <row r="2341" spans="1:1" x14ac:dyDescent="0.25">
@@ -22671,8 +22634,8 @@
       </c>
     </row>
     <row r="2343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2343" s="6" t="s">
-        <v>934</v>
+      <c r="A2343" s="3" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="2344" spans="1:1" x14ac:dyDescent="0.25">
@@ -22717,7 +22680,7 @@
     </row>
     <row r="2352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2352" s="3" t="s">
-        <v>972</v>
+        <v>995</v>
       </c>
     </row>
     <row r="2353" spans="1:1" x14ac:dyDescent="0.25">
@@ -22827,7 +22790,7 @@
     </row>
     <row r="2374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2374" s="3" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="2375" spans="1:1" x14ac:dyDescent="0.25">
@@ -22842,7 +22805,7 @@
     </row>
     <row r="2377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2377" s="3" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="2378" spans="1:1" x14ac:dyDescent="0.25">
@@ -22857,7 +22820,7 @@
     </row>
     <row r="2380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2380" s="3" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="2381" spans="1:1" x14ac:dyDescent="0.25">
@@ -22902,7 +22865,7 @@
     </row>
     <row r="2389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2389" s="3" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="2390" spans="1:1" x14ac:dyDescent="0.25">
@@ -22931,18 +22894,18 @@
       </c>
     </row>
     <row r="2395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2395" s="3" t="s">
-        <v>1039</v>
+      <c r="A2395" s="5" t="s">
+        <v>2453</v>
       </c>
     </row>
     <row r="2396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2396" s="5" t="s">
-        <v>2454</v>
+      <c r="A2396" s="3" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="2397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2397" s="3" t="s">
-        <v>973</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="2398" spans="1:1" x14ac:dyDescent="0.25">
@@ -22952,7 +22915,7 @@
     </row>
     <row r="2399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2399" s="3" t="s">
-        <v>1041</v>
+        <v>973</v>
       </c>
     </row>
     <row r="2400" spans="1:1" x14ac:dyDescent="0.25">
@@ -22987,7 +22950,7 @@
     </row>
     <row r="2406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2406" s="3" t="s">
-        <v>980</v>
+        <v>988</v>
       </c>
     </row>
     <row r="2407" spans="1:1" x14ac:dyDescent="0.25">
@@ -23002,12 +22965,12 @@
     </row>
     <row r="2409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2409" s="3" t="s">
-        <v>991</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="2410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2410" s="3" t="s">
-        <v>1047</v>
+        <v>980</v>
       </c>
     </row>
     <row r="2411" spans="1:1" x14ac:dyDescent="0.25">
@@ -23047,7 +23010,7 @@
     </row>
     <row r="2418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2418" s="3" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
     </row>
     <row r="2419" spans="1:1" x14ac:dyDescent="0.25">
@@ -23057,12 +23020,12 @@
     </row>
     <row r="2420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2420" s="3" t="s">
-        <v>993</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="2421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2421" s="3" t="s">
-        <v>1042</v>
+      <c r="A2421" s="4" t="s">
+        <v>2454</v>
       </c>
     </row>
     <row r="2422" spans="1:1" x14ac:dyDescent="0.25">
@@ -23071,18 +23034,18 @@
       </c>
     </row>
     <row r="2423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2423" s="4" t="s">
-        <v>2456</v>
+      <c r="A2423" s="3" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="2424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2424" s="3" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="2425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2425" s="3" t="s">
-        <v>1043</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="2426" spans="1:1" x14ac:dyDescent="0.25">
@@ -23091,13 +23054,13 @@
       </c>
     </row>
     <row r="2427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2427" s="3" t="s">
+      <c r="A2427" s="8" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2428" s="3" t="s">
         <v>1050</v>
-      </c>
-    </row>
-    <row r="2428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2428" s="8" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="2429" spans="1:1" x14ac:dyDescent="0.25">
@@ -23112,57 +23075,57 @@
     </row>
     <row r="2431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2431" s="3" t="s">
-        <v>1053</v>
+        <v>993</v>
       </c>
     </row>
     <row r="2432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2432" s="3" t="s">
-        <v>994</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="2433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2433" s="3" t="s">
-        <v>1045</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="2434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2434" s="3" t="s">
-        <v>1056</v>
+      <c r="A2434" s="8" t="s">
+        <v>2456</v>
       </c>
     </row>
     <row r="2435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2435" s="8" t="s">
-        <v>2457</v>
+      <c r="A2435" s="3" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="2436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2436" s="3" t="s">
-        <v>1033</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="2437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2437" s="3" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="2438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2438" s="3" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="2439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2439" s="3" t="s">
+      <c r="A2439" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2440" s="3" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="2440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2440" s="8" t="s">
-        <v>758</v>
-      </c>
-    </row>
     <row r="2441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2441" s="3" t="s">
-        <v>1058</v>
+      <c r="A2441" s="4" t="s">
+        <v>2457</v>
       </c>
     </row>
     <row r="2442" spans="1:1" x14ac:dyDescent="0.25">
@@ -23181,8 +23144,8 @@
       </c>
     </row>
     <row r="2445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2445" s="4" t="s">
-        <v>2461</v>
+      <c r="A2445" s="6" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="2446" spans="1:1" x14ac:dyDescent="0.25">
@@ -23202,7 +23165,7 @@
     </row>
     <row r="2449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2449" s="6" t="s">
-        <v>938</v>
+        <v>953</v>
       </c>
     </row>
     <row r="2450" spans="1:1" x14ac:dyDescent="0.25">
@@ -23251,33 +23214,33 @@
       </c>
     </row>
     <row r="2459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2459" s="6" t="s">
-        <v>963</v>
+      <c r="A2459" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2460" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2461" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2462" s="3" t="s">
-        <v>2</v>
+      <c r="A2462" s="4" t="s">
+        <v>2461</v>
       </c>
     </row>
     <row r="2463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2463" s="4" t="s">
+      <c r="A2463" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2464" s="4" t="s">
         <v>2462</v>
-      </c>
-    </row>
-    <row r="2464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2464" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2465" spans="1:1" x14ac:dyDescent="0.25">
@@ -23327,12 +23290,12 @@
     </row>
     <row r="2474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2474" s="4" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2475" s="9" t="s">
         <v>2472</v>
-      </c>
-    </row>
-    <row r="2475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2475" s="4" t="s">
-        <v>2755</v>
       </c>
     </row>
     <row r="2476" spans="1:1" x14ac:dyDescent="0.25">
@@ -24741,8 +24704,8 @@
       </c>
     </row>
     <row r="2757" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2757" s="9" t="s">
-        <v>2754</v>
+      <c r="A2757" s="10" t="s">
+        <v>2755</v>
       </c>
     </row>
     <row r="2758" spans="1:1" x14ac:dyDescent="0.25">
@@ -25786,7 +25749,7 @@
       </c>
     </row>
     <row r="2966" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2966" s="10" t="s">
+      <c r="A2966" s="3" t="s">
         <v>2964</v>
       </c>
     </row>
@@ -25871,7 +25834,7 @@
       </c>
     </row>
     <row r="2983" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2983" s="3" t="s">
+      <c r="A2983" s="11" t="s">
         <v>2981</v>
       </c>
     </row>
@@ -25921,7 +25884,7 @@
       </c>
     </row>
     <row r="2993" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2993" s="11" t="s">
+      <c r="A2993" s="5" t="s">
         <v>2991</v>
       </c>
     </row>
@@ -25982,7 +25945,7 @@
     </row>
     <row r="3005" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3005" s="5" t="s">
-        <v>3003</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="3006" spans="1:1" x14ac:dyDescent="0.25">
@@ -26012,27 +25975,27 @@
     </row>
     <row r="3011" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3011" s="5" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="3012" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3012" s="5" t="s">
-        <v>1671</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="3013" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3013" s="5" t="s">
-        <v>1675</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="3014" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3014" s="5" t="s">
-        <v>1697</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="3015" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3015" s="5" t="s">
-        <v>1759</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="3016" spans="1:1" x14ac:dyDescent="0.25">
@@ -26057,7 +26020,7 @@
     </row>
     <row r="3020" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3020" s="5" t="s">
-        <v>1774</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="3021" spans="1:1" x14ac:dyDescent="0.25">
@@ -26067,17 +26030,17 @@
     </row>
     <row r="3022" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3022" s="5" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="3023" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3023" s="5" t="s">
-        <v>1803</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="3024" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3024" s="5" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="3025" spans="1:1" x14ac:dyDescent="0.25">
@@ -26107,27 +26070,27 @@
     </row>
     <row r="3030" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3030" s="5" t="s">
-        <v>1814</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="3031" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3031" s="5" t="s">
-        <v>1713</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="3032" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3032" s="5" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="3033" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3033" s="5" t="s">
-        <v>1715</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="3034" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3034" s="5" t="s">
-        <v>1778</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="3035" spans="1:1" x14ac:dyDescent="0.25">
@@ -26137,7 +26100,7 @@
     </row>
     <row r="3036" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3036" s="5" t="s">
-        <v>1828</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="3037" spans="1:1" x14ac:dyDescent="0.25">
@@ -26152,22 +26115,22 @@
     </row>
     <row r="3039" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3039" s="5" t="s">
-        <v>1833</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="3040" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3040" s="5" t="s">
-        <v>1846</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="3041" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3041" s="5" t="s">
-        <v>1861</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="3042" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3042" s="5" t="s">
-        <v>1864</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="3043" spans="1:1" x14ac:dyDescent="0.25">
@@ -26177,7 +26140,7 @@
     </row>
     <row r="3044" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3044" s="5" t="s">
-        <v>1938</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="3045" spans="1:1" x14ac:dyDescent="0.25">
@@ -26187,12 +26150,12 @@
     </row>
     <row r="3046" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3046" s="5" t="s">
-        <v>1944</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="3047" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3047" s="5" t="s">
-        <v>1965</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="3048" spans="1:1" x14ac:dyDescent="0.25">
@@ -26202,7 +26165,7 @@
     </row>
     <row r="3049" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3049" s="5" t="s">
-        <v>1985</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="3050" spans="1:1" x14ac:dyDescent="0.25">
@@ -26232,52 +26195,52 @@
     </row>
     <row r="3055" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3055" s="5" t="s">
-        <v>2001</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="3056" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3056" s="5" t="s">
-        <v>1887</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="3057" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3057" s="5" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="3058" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3058" s="5" t="s">
-        <v>1889</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="3059" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3059" s="5" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="3060" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3060" s="5" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="3061" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3061" s="5" t="s">
-        <v>2022</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="3062" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3062" s="5" t="s">
-        <v>2067</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="3063" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3063" s="5" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="3064" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3064" s="5" t="s">
-        <v>2073</v>
+      <c r="A3064" s="7" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="3065" spans="1:1" x14ac:dyDescent="0.25">
@@ -26292,81 +26255,81 @@
     </row>
     <row r="3067" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3067" s="7" t="s">
-        <v>754</v>
+        <v>786</v>
       </c>
     </row>
     <row r="3068" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3068" s="7" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="3069" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3069" s="7" t="s">
-        <v>790</v>
+        <v>759</v>
       </c>
     </row>
     <row r="3070" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3070" s="7" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
     </row>
     <row r="3071" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3071" s="7" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="3072" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3072" s="7" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="3073" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3073" s="7" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="3074" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3074" s="7" t="s">
-        <v>775</v>
+        <v>798</v>
       </c>
     </row>
     <row r="3075" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3075" s="7" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
     </row>
     <row r="3076" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3076" s="7" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
     </row>
     <row r="3077" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3077" s="7" t="s">
-        <v>763</v>
+        <v>783</v>
       </c>
     </row>
     <row r="3078" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3078" s="7" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="3079" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3079" s="7" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="3080" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3080" s="7" t="s">
-        <v>796</v>
+        <v>806</v>
       </c>
     </row>
     <row r="3081" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3081" s="7" t="s">
-        <v>807</v>
+      <c r="A3081" s="5" t="s">
+        <v>3003</v>
       </c>
     </row>
     <row r="3082" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3082" s="5" t="s">
+      <c r="A3082" s="12" t="s">
         <v>3004</v>
       </c>
     </row>
@@ -27402,12 +27365,12 @@
     </row>
     <row r="3289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3289" s="12" t="s">
-        <v>3211</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="3290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3290" s="12" t="s">
-        <v>3338</v>
+      <c r="A3290" s="13" t="s">
+        <v>3212</v>
       </c>
     </row>
     <row r="3291" spans="1:1" x14ac:dyDescent="0.25">
@@ -28031,8 +27994,8 @@
       </c>
     </row>
     <row r="3415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3415" s="13" t="s">
-        <v>3337</v>
+      <c r="A3415" s="9" t="s">
+        <v>3212</v>
       </c>
     </row>
     <row r="3416" spans="1:1" x14ac:dyDescent="0.25">
@@ -28657,7 +28620,7 @@
     </row>
     <row r="3540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3540" s="9" t="s">
-        <v>3337</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="3541" spans="1:1" x14ac:dyDescent="0.25">
@@ -28671,7 +28634,7 @@
       </c>
     </row>
     <row r="3543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3543" s="9" t="s">
+      <c r="A3543" s="14" t="s">
         <v>3341</v>
       </c>
     </row>
@@ -28681,7 +28644,7 @@
       </c>
     </row>
     <row r="3545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3545" s="14" t="s">
+      <c r="A3545" s="11" t="s">
         <v>3343</v>
       </c>
     </row>
@@ -28691,7 +28654,7 @@
       </c>
     </row>
     <row r="3547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3547" s="11" t="s">
+      <c r="A3547" s="14" t="s">
         <v>3345</v>
       </c>
     </row>
@@ -28706,7 +28669,7 @@
       </c>
     </row>
     <row r="3550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3550" s="14" t="s">
+      <c r="A3550" s="11" t="s">
         <v>3348</v>
       </c>
     </row>
@@ -28716,12 +28679,12 @@
       </c>
     </row>
     <row r="3552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3552" s="11" t="s">
+      <c r="A3552" s="14" t="s">
         <v>3350</v>
       </c>
     </row>
     <row r="3553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3553" s="14" t="s">
+      <c r="A3553" s="4" t="s">
         <v>3351</v>
       </c>
     </row>
@@ -28901,7 +28864,7 @@
       </c>
     </row>
     <row r="3589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3589" s="4" t="s">
+      <c r="A3589" s="3" t="s">
         <v>3387</v>
       </c>
     </row>
@@ -28985,96 +28948,91 @@
         <v>3403</v>
       </c>
     </row>
-    <row r="3606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3606" s="3" t="s">
-        <v>3404</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:A3289"/>
+  <autoFilter ref="A1:A3288"/>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="31" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2465:A2475">
-    <cfRule type="expression" dxfId="30" priority="37">
-      <formula>IF(FIND(" ",$E2465)&gt;0,TRUE,FALSE)</formula>
+  <conditionalFormatting sqref="A2464:A2474">
+    <cfRule type="expression" dxfId="26" priority="37">
+      <formula>IF(FIND(" ",$E2464)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="29" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2476:A2757">
-    <cfRule type="expression" dxfId="28" priority="24">
-      <formula>IF(FIND(" ",$E2476)&gt;0,TRUE,FALSE)</formula>
+  <conditionalFormatting sqref="A2475:A2756">
+    <cfRule type="expression" dxfId="24" priority="24">
+      <formula>IF(FIND(" ",$E2475)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="27" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2994:A3082">
-    <cfRule type="expression" dxfId="26" priority="20">
-      <formula>IF(FIND(" ",$E2994)&gt;0,TRUE,FALSE)</formula>
+  <conditionalFormatting sqref="A2993:A3081">
+    <cfRule type="expression" dxfId="22" priority="20">
+      <formula>IF(FIND(" ",$E2993)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="25" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3083:A3290">
-    <cfRule type="expression" dxfId="24" priority="18">
-      <formula>IF(FIND(" ",$E3083)&gt;0,TRUE,FALSE)</formula>
+  <conditionalFormatting sqref="A3082:A3289">
+    <cfRule type="expression" dxfId="20" priority="18">
+      <formula>IF(FIND(" ",$E3082)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="23" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2212">
-    <cfRule type="expression" dxfId="22" priority="16">
-      <formula>IF(FIND(" ",$E2212)&gt;0,TRUE,FALSE)</formula>
+  <conditionalFormatting sqref="A2211">
+    <cfRule type="expression" dxfId="18" priority="16">
+      <formula>IF(FIND(" ",$E2211)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="21" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A2211 A2758:A2983 A2986:A2993 A3291:A3415 A2213:A2464 A3590:A3600 A3607:A1048576">
-    <cfRule type="expression" dxfId="20" priority="87">
+  <conditionalFormatting sqref="A3415:A3552">
+    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3553:A3588">
+    <cfRule type="expression" dxfId="15" priority="13">
+      <formula>IF(FIND(" ",$E3553)&gt;0,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3600">
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>IF(FIND(" ",$E3600)&gt;0,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3601">
+    <cfRule type="expression" dxfId="11" priority="9">
+      <formula>IF(FIND(" ",$E3601)&gt;0,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3602">
+    <cfRule type="expression" dxfId="9" priority="7">
+      <formula>IF(FIND(" ",$E3602)&gt;0,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3603">
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>IF(FIND(" ",$E3603)&gt;0,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3604">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>IF(FIND(" ",$E3604)&gt;0,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3605">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>IF(FIND(" ",$E3605)&gt;0,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A2210 A2757:A2982 A2985:A2992 A3290:A3414 A2212:A2463 A3589:A3599 A3606:A1048576">
+    <cfRule type="expression" dxfId="1" priority="89">
       <formula>IF(FIND(" ",$E1)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="19" priority="88"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3416:A3553">
-    <cfRule type="duplicateValues" dxfId="18" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3554:A3589">
-    <cfRule type="expression" dxfId="17" priority="13">
-      <formula>IF(FIND(" ",$E3554)&gt;0,TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="duplicateValues" dxfId="16" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3601">
-    <cfRule type="expression" dxfId="15" priority="11">
-      <formula>IF(FIND(" ",$E3601)&gt;0,TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3602">
-    <cfRule type="expression" dxfId="13" priority="9">
-      <formula>IF(FIND(" ",$E3602)&gt;0,TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="duplicateValues" dxfId="12" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3603">
-    <cfRule type="expression" dxfId="11" priority="7">
-      <formula>IF(FIND(" ",$E3603)&gt;0,TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3604">
-    <cfRule type="expression" dxfId="9" priority="5">
-      <formula>IF(FIND(" ",$E3604)&gt;0,TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3605">
-    <cfRule type="expression" dxfId="7" priority="3">
-      <formula>IF(FIND(" ",$E3605)&gt;0,TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3606">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>IF(FIND(" ",$E3606)&gt;0,TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="90"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
